--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1416,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1459,10 +1459,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1648,27 +1644,27 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
@@ -1727,7 +1723,7 @@
         <f aca="false">COUNTIF(C3,"i")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="9"/>
@@ -1741,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="9"/>
@@ -1749,7 +1745,7 @@
         <f aca="false">COUNTIF(L3,"marketing strategy")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="6" t="n">
@@ -1766,7 +1762,7 @@
         <f aca="false">COUNTIF(C4,"you")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9"/>
@@ -1780,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="9"/>
@@ -1788,7 +1784,7 @@
         <f aca="false">COUNTIF(L4,"marketing departament")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="6" t="n">
@@ -1805,7 +1801,7 @@
         <f aca="false">COUNTIF(C5,"he")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="9"/>
@@ -1819,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="9"/>
@@ -1827,10 +1823,10 @@
         <f aca="false">COUNTIF(L5,"marketing director")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <f aca="false">P3/393</f>
         <v>0</v>
       </c>
@@ -1844,7 +1840,7 @@
         <f aca="false">COUNTIF(C6,"she")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="9"/>
@@ -1858,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="9"/>
@@ -1866,7 +1862,7 @@
         <f aca="false">COUNTIF(L6,"marketing specialist")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="13" t="str">
         <f aca="false">IF(P5&gt;0.75,"Zdał","Nie zdał")</f>
         <v>Nie zdał</v>
       </c>
@@ -1880,7 +1876,7 @@
         <f aca="false">COUNTIF(C7,"it")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="9"/>
@@ -1894,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="0"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="9"/>
@@ -1912,7 +1908,7 @@
         <f aca="false">COUNTIF(C8,"we")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="9"/>
@@ -1926,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="9"/>
@@ -1944,7 +1940,7 @@
         <f aca="false">COUNTIF(C9,"you")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="9"/>
@@ -1958,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="9"/>
@@ -1976,7 +1972,7 @@
         <f aca="false">COUNTIF(C10,"they")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="9"/>
@@ -1990,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="0"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="9"/>
@@ -2004,12 +2000,12 @@
         <f aca="false">COUNTBLANK(C3:C10)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <f aca="false">SUM(D3:D10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="9"/>
@@ -2023,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="9"/>
@@ -2040,7 +2036,7 @@
       <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="9"/>
@@ -2054,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="9"/>
@@ -2064,7 +2060,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="9"/>
@@ -2072,7 +2068,7 @@
         <f aca="false">COUNTIF(C13,"me")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="9"/>
@@ -2086,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="0"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="9"/>
@@ -2096,7 +2092,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
@@ -2104,7 +2100,7 @@
         <f aca="false">COUNTIF(C14,"you")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="9"/>
@@ -2118,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="9"/>
@@ -2128,7 +2124,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="9"/>
@@ -2136,7 +2132,7 @@
         <f aca="false">COUNTIF(C15,"him")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="9"/>
@@ -2150,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="9"/>
@@ -2160,7 +2156,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="9"/>
@@ -2168,7 +2164,7 @@
         <f aca="false">COUNTIF(C16,"her")</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="9"/>
@@ -2182,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="0"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="9"/>
@@ -2192,7 +2188,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="9"/>
@@ -2200,7 +2196,7 @@
         <f aca="false">COUNTIF(C17,"it")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="9"/>
@@ -2214,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L17" s="9"/>
@@ -2224,7 +2220,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9"/>
@@ -2232,7 +2228,7 @@
         <f aca="false">COUNTIF(C18,"us")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="9"/>
@@ -2246,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="8" t="s">
         <v>58</v>
       </c>
       <c r="L18" s="9"/>
@@ -2256,7 +2252,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="9"/>
@@ -2264,7 +2260,7 @@
         <f aca="false">COUNTIF(C19,"you")</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="9"/>
@@ -2278,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="9"/>
@@ -2288,7 +2284,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="9"/>
@@ -2296,7 +2292,7 @@
         <f aca="false">COUNTIF(C20,"them")</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="9"/>
@@ -2310,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="9"/>
@@ -2324,12 +2320,12 @@
         <f aca="false">COUNTBLANK(C13:C20)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="14" t="n">
         <f aca="false">SUM(D13:D20)</f>
         <v>0</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="9"/>
@@ -2343,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="8" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="9"/>
@@ -2360,7 +2356,7 @@
       <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="9"/>
@@ -2374,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0"/>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="9"/>
@@ -2388,7 +2384,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="9"/>
@@ -2396,7 +2392,7 @@
         <f aca="false">COUNTIF(C23,"my")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="9"/>
@@ -2410,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L23" s="9"/>
@@ -2420,7 +2416,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="9"/>
@@ -2432,17 +2428,17 @@
         <f aca="false">COUNTBLANK(F3:F23)</f>
         <v>21</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <f aca="false">SUM(G3:G23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="14" t="n">
         <f aca="false">SUM(I3:I23)</f>
         <v>0</v>
       </c>
       <c r="J24" s="0"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="8" t="s">
         <v>75</v>
       </c>
       <c r="L24" s="9"/>
@@ -2452,7 +2448,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="9"/>
@@ -2470,7 +2466,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="L25" s="9"/>
@@ -2480,7 +2476,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="9"/>
@@ -2496,7 +2492,7 @@
         <f aca="false">COUNTIF(F26,"waiter")</f>
         <v>0</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="9"/>
@@ -2504,7 +2500,7 @@
         <f aca="false">COUNTIF(I26,"birthday")</f>
         <v>0</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="8" t="s">
         <v>83</v>
       </c>
       <c r="L26" s="9"/>
@@ -2514,7 +2510,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="9"/>
@@ -2530,7 +2526,7 @@
         <f aca="false">COUNTIF(F27,"journalist")</f>
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>86</v>
       </c>
       <c r="I27" s="9"/>
@@ -2538,7 +2534,7 @@
         <f aca="false">COUNTIF(I27,"sure")</f>
         <v>0</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L27" s="9"/>
@@ -2548,7 +2544,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="9"/>
@@ -2564,7 +2560,7 @@
         <f aca="false">COUNTIF(F28,"construction worker")</f>
         <v>0</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="9"/>
@@ -2572,7 +2568,7 @@
         <f aca="false">COUNTIF(I28,"opinion")</f>
         <v>0</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L28" s="9"/>
@@ -2582,7 +2578,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="9"/>
@@ -2598,7 +2594,7 @@
         <f aca="false">COUNTIF(F29,"baby sitter")</f>
         <v>0</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="9"/>
@@ -2606,7 +2602,7 @@
         <f aca="false">COUNTIF(I29,"mind")</f>
         <v>0</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L29" s="9"/>
@@ -2616,7 +2612,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="9"/>
@@ -2632,7 +2628,7 @@
         <f aca="false">COUNTIF(F30,"accountant")</f>
         <v>0</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="I30" s="9"/>
@@ -2640,7 +2636,7 @@
         <f aca="false">COUNTIF(I30,"to my mind")</f>
         <v>0</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="8" t="s">
         <v>99</v>
       </c>
       <c r="L30" s="9"/>
@@ -2654,7 +2650,7 @@
         <f aca="false">COUNTBLANK(C23:C30)</f>
         <v>8</v>
       </c>
-      <c r="C31" s="15" t="n">
+      <c r="C31" s="14" t="n">
         <f aca="false">SUM(D23:D30)</f>
         <v>0</v>
       </c>
@@ -2667,7 +2663,7 @@
         <f aca="false">COUNTIF(F31,"security guard")</f>
         <v>0</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="I31" s="9"/>
@@ -2675,7 +2671,7 @@
         <f aca="false">COUNTIF(I31,"in my opinion")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="8" t="s">
         <v>102</v>
       </c>
       <c r="L31" s="9"/>
@@ -2700,7 +2696,7 @@
         <f aca="false">COUNTIF(F32,"tailor")</f>
         <v>0</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I32" s="9"/>
@@ -2708,7 +2704,7 @@
         <f aca="false">COUNTIF(I32,"learn")</f>
         <v>0</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="8" t="s">
         <v>107</v>
       </c>
       <c r="L32" s="9"/>
@@ -2718,7 +2714,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="9"/>
@@ -2734,7 +2730,7 @@
         <f aca="false">COUNTIF(F33,"hairdresser")</f>
         <v>0</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="8" t="s">
         <v>109</v>
       </c>
       <c r="I33" s="9"/>
@@ -2742,7 +2738,7 @@
         <f aca="false">COUNTIF(I33,"spell")</f>
         <v>0</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="8" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="9"/>
@@ -2752,7 +2748,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="9"/>
@@ -2768,7 +2764,7 @@
         <f aca="false">COUNTIF(F34,"clerk")</f>
         <v>0</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="8" t="s">
         <v>112</v>
       </c>
       <c r="I34" s="9"/>
@@ -2776,7 +2772,7 @@
         <f aca="false">COUNTIF(I34,"full sentences")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="8" t="s">
         <v>113</v>
       </c>
       <c r="L34" s="9"/>
@@ -2786,7 +2782,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="9"/>
@@ -2802,7 +2798,7 @@
         <f aca="false">COUNTIF(F35,"baker")</f>
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="9"/>
@@ -2810,7 +2806,7 @@
         <f aca="false">COUNTIF(I35,"colleagues")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="8" t="s">
         <v>116</v>
       </c>
       <c r="L35" s="9"/>
@@ -2820,7 +2816,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="9"/>
@@ -2836,7 +2832,7 @@
         <f aca="false">COUNTIF(F36,"police officer")</f>
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I36" s="9"/>
@@ -2844,7 +2840,7 @@
         <f aca="false">COUNTIF(I36,"case")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="8" t="s">
         <v>119</v>
       </c>
       <c r="L36" s="9"/>
@@ -2854,7 +2850,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="9"/>
@@ -2870,7 +2866,7 @@
         <f aca="false">COUNTIF(F37,"lawyer")</f>
         <v>0</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="8" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9"/>
@@ -2878,7 +2874,7 @@
         <f aca="false">COUNTIF(I37,"notebook")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="8" t="s">
         <v>122</v>
       </c>
       <c r="L37" s="9"/>
@@ -2888,7 +2884,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="9"/>
@@ -2904,7 +2900,7 @@
         <f aca="false">COUNTIF(F38,"vet")</f>
         <v>0</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="9"/>
@@ -2912,7 +2908,7 @@
         <f aca="false">COUNTIF(I38,"table")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L38" s="9"/>
@@ -2922,7 +2918,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="9"/>
@@ -2938,7 +2934,7 @@
         <f aca="false">COUNTIF(F39,"chef")</f>
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I39" s="9"/>
@@ -2946,7 +2942,7 @@
         <f aca="false">COUNTIF(I39,"pencil")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L39" s="9"/>
@@ -2956,7 +2952,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="9"/>
@@ -2972,7 +2968,7 @@
         <f aca="false">COUNTIF(F40,"scientist")</f>
         <v>0</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="8" t="s">
         <v>130</v>
       </c>
       <c r="I40" s="9"/>
@@ -2980,7 +2976,7 @@
         <f aca="false">COUNTIF(I40,"pronunciation")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="8" t="s">
         <v>131</v>
       </c>
       <c r="L40" s="9"/>
@@ -2994,7 +2990,7 @@
         <f aca="false">COUNTBLANK(C33:C40)</f>
         <v>8</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C41" s="14" t="n">
         <f aca="false">SUM(D33:D40)</f>
         <v>0</v>
       </c>
@@ -3007,7 +3003,7 @@
         <f aca="false">COUNTIF(F41,"nurse")</f>
         <v>0</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I41" s="9"/>
@@ -3015,7 +3011,7 @@
         <f aca="false">COUNTIF(I41,"i can't pronounce it")</f>
         <v>0</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="8" t="s">
         <v>134</v>
       </c>
       <c r="L41" s="9"/>
@@ -3025,8 +3021,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="0"/>
       <c r="E42" s="8" t="s">
         <v>135</v>
@@ -3036,7 +3032,7 @@
         <f aca="false">COUNTIF(F42,"doctor")</f>
         <v>0</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="8" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="9"/>
@@ -3044,7 +3040,7 @@
         <f aca="false">COUNTIF(I42,"things")</f>
         <v>0</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="8" t="s">
         <v>137</v>
       </c>
       <c r="L42" s="9"/>
@@ -3054,7 +3050,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="9"/>
@@ -3070,7 +3066,7 @@
         <f aca="false">COUNTIF(F43,"office worker")</f>
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="8" t="s">
         <v>140</v>
       </c>
       <c r="I43" s="9"/>
@@ -3078,7 +3074,7 @@
         <f aca="false">COUNTIF(I43,"singular")</f>
         <v>0</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="8" t="s">
         <v>141</v>
       </c>
       <c r="L43" s="9"/>
@@ -3088,7 +3084,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="9"/>
@@ -3104,7 +3100,7 @@
         <f aca="false">COUNTIF(F44,"shop assistant")</f>
         <v>0</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="8" t="s">
         <v>144</v>
       </c>
       <c r="I44" s="9"/>
@@ -3112,7 +3108,7 @@
         <f aca="false">COUNTIF(I44,"plural")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="8" t="s">
         <v>145</v>
       </c>
       <c r="L44" s="9"/>
@@ -3122,7 +3118,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="9"/>
@@ -3138,7 +3134,7 @@
         <f aca="false">COUNTIF(F45,"taxi driver")</f>
         <v>0</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="8" t="s">
         <v>148</v>
       </c>
       <c r="I45" s="9"/>
@@ -3146,7 +3142,7 @@
         <f aca="false">COUNTIF(I45,"highway")</f>
         <v>0</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="8" t="s">
         <v>149</v>
       </c>
       <c r="L45" s="9"/>
@@ -3156,7 +3152,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="9"/>
@@ -3172,7 +3168,7 @@
         <f aca="false">COUNTIF(F46,"teacher")</f>
         <v>0</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="8" t="s">
         <v>152</v>
       </c>
       <c r="I46" s="9"/>
@@ -3180,7 +3176,7 @@
         <f aca="false">COUNTIF(I46,"fried")</f>
         <v>0</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="8" t="s">
         <v>153</v>
       </c>
       <c r="L46" s="9"/>
@@ -3190,7 +3186,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="9"/>
@@ -3206,7 +3202,7 @@
         <f aca="false">COUNTIF(F47,"mechanic")</f>
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="8" t="s">
         <v>156</v>
       </c>
       <c r="I47" s="9"/>
@@ -3214,7 +3210,7 @@
         <f aca="false">COUNTIF(I47,"fry")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="8" t="s">
         <v>157</v>
       </c>
       <c r="L47" s="9"/>
@@ -3224,7 +3220,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C48" s="9"/>
@@ -3240,7 +3236,7 @@
         <f aca="false">COUNTIF(F48,"postman")</f>
         <v>0</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="8" t="s">
         <v>160</v>
       </c>
       <c r="I48" s="9"/>
@@ -3248,7 +3244,7 @@
         <f aca="false">COUNTIF(I48,"stuffed")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L48" s="9"/>
@@ -3258,7 +3254,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="9"/>
@@ -3270,12 +3266,12 @@
         <f aca="false">COUNTBLANK(F26:F48)</f>
         <v>23</v>
       </c>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="14" t="n">
         <f aca="false">SUM(G26:G48)</f>
         <v>0</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="8" t="s">
         <v>163</v>
       </c>
       <c r="I49" s="9"/>
@@ -3283,7 +3279,7 @@
         <f aca="false">COUNTIF(I49,"dill")</f>
         <v>0</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="L49" s="9"/>
@@ -3293,7 +3289,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="9"/>
@@ -3306,7 +3302,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="8" t="s">
         <v>166</v>
       </c>
       <c r="I50" s="9"/>
@@ -3318,7 +3314,7 @@
         <f aca="false">COUNTBLANK(L3:L49)</f>
         <v>47</v>
       </c>
-      <c r="L50" s="15" t="n">
+      <c r="L50" s="14" t="n">
         <f aca="false">SUM(M3:M49,N22)</f>
         <v>0</v>
       </c>
@@ -3329,12 +3325,12 @@
         <f aca="false">COUNTBLANK(C43:C50)</f>
         <v>8</v>
       </c>
-      <c r="C51" s="15" t="n">
+      <c r="C51" s="14" t="n">
         <f aca="false">SUM(D43:D50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="0"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F51" s="9"/>
@@ -3342,7 +3338,7 @@
         <f aca="false">COUNTIF(F51,"big country")</f>
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="8" t="s">
         <v>168</v>
       </c>
       <c r="I51" s="9"/>
@@ -3358,7 +3354,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="0"/>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="8" t="s">
         <v>170</v>
       </c>
       <c r="F52" s="9"/>
@@ -3366,7 +3362,7 @@
         <f aca="false">COUNTIF(F52,"area")</f>
         <v>0</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="8" t="s">
         <v>171</v>
       </c>
       <c r="I52" s="9"/>
@@ -3381,7 +3377,7 @@
       <c r="M52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C53" s="9"/>
@@ -3389,7 +3385,7 @@
         <f aca="false">COUNTIF(C53,"on monday")</f>
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>174</v>
       </c>
       <c r="F53" s="9"/>
@@ -3397,7 +3393,7 @@
         <f aca="false">COUNTIF(F53,"about")</f>
         <v>0</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="8" t="s">
         <v>175</v>
       </c>
       <c r="I53" s="9"/>
@@ -3410,7 +3406,7 @@
       <c r="M53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C54" s="9"/>
@@ -3418,7 +3414,7 @@
         <f aca="false">COUNTIF(C54,"on tuesday")</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="8" t="s">
         <v>177</v>
       </c>
       <c r="F54" s="9"/>
@@ -3426,7 +3422,7 @@
         <f aca="false">COUNTIF(F54,"square")</f>
         <v>0</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="8" t="s">
         <v>178</v>
       </c>
       <c r="I54" s="9"/>
@@ -3434,17 +3430,17 @@
         <f aca="false">COUNTIF(I54,"tall")</f>
         <v>0</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L54" s="17"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="10" t="n">
         <f aca="false">COUNTIF(L54,"dress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C55" s="9"/>
@@ -3452,7 +3448,7 @@
         <f aca="false">COUNTIF(C55,"on wednesday")</f>
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="8" t="s">
         <v>181</v>
       </c>
       <c r="F55" s="9"/>
@@ -3460,7 +3456,7 @@
         <f aca="false">COUNTIF(F55,"capital")</f>
         <v>0</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="8" t="s">
         <v>182</v>
       </c>
       <c r="I55" s="9"/>
@@ -3468,17 +3464,17 @@
         <f aca="false">COUNTIF(I55,"short")</f>
         <v>0</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="L55" s="17"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="10" t="n">
         <f aca="false">COUNTIF(L55,"blouse")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C56" s="9"/>
@@ -3486,7 +3482,7 @@
         <f aca="false">COUNTIF(C56,"on thursday")</f>
         <v>0</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F56" s="9"/>
@@ -3494,7 +3490,7 @@
         <f aca="false">COUNTIF(F56,"city")</f>
         <v>0</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I56" s="9"/>
@@ -3502,17 +3498,17 @@
         <f aca="false">COUNTIF(I56,"how tall are you")</f>
         <v>0</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="10" t="n">
         <f aca="false">COUNTIF(L56,"shirt")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C57" s="9"/>
@@ -3520,7 +3516,7 @@
         <f aca="false">COUNTIF(C57,"on friday")</f>
         <v>0</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="8" t="s">
         <v>189</v>
       </c>
       <c r="F57" s="9"/>
@@ -3528,7 +3524,7 @@
         <f aca="false">COUNTIF(F57,"people")</f>
         <v>0</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="8" t="s">
         <v>190</v>
       </c>
       <c r="I57" s="9"/>
@@ -3536,17 +3532,17 @@
         <f aca="false">COUNTIF(I57,"arrive")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="10" t="n">
         <f aca="false">COUNTIF(L57,"skirt")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C58" s="9"/>
@@ -3554,7 +3550,7 @@
         <f aca="false">COUNTIF(C58,"on saturday")</f>
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F58" s="9"/>
@@ -3562,7 +3558,7 @@
         <f aca="false">COUNTIF(F58,"currency")</f>
         <v>0</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="8" t="s">
         <v>194</v>
       </c>
       <c r="I58" s="9"/>
@@ -3570,17 +3566,17 @@
         <f aca="false">COUNTIF(I58,"carpet")</f>
         <v>0</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="10" t="n">
         <f aca="false">COUNTIF(L58,"vest")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C59" s="9"/>
@@ -3588,7 +3584,7 @@
         <f aca="false">COUNTIF(C59,"on sunday")</f>
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F59" s="9"/>
@@ -3596,7 +3592,7 @@
         <f aca="false">COUNTIF(F59,"friendly")</f>
         <v>0</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="8" t="s">
         <v>198</v>
       </c>
       <c r="I59" s="9"/>
@@ -3604,10 +3600,10 @@
         <f aca="false">COUNTIF(I59,"pillows")</f>
         <v>0</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="10" t="n">
         <f aca="false">COUNTIF(L59,"gloves")</f>
         <v>0</v>
@@ -3618,12 +3614,12 @@
         <f aca="false">COUNTBLANK(C53:C59)</f>
         <v>7</v>
       </c>
-      <c r="C60" s="15" t="n">
+      <c r="C60" s="14" t="n">
         <f aca="false">SUM(D53:D59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="0"/>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="8" t="s">
         <v>200</v>
       </c>
       <c r="F60" s="9"/>
@@ -3635,15 +3631,15 @@
         <f aca="false">COUNTBLANK(I26:I59)</f>
         <v>34</v>
       </c>
-      <c r="I60" s="15" t="n">
+      <c r="I60" s="14" t="n">
         <f aca="false">SUM(J26:J59)</f>
         <v>0</v>
       </c>
       <c r="J60" s="0"/>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="10" t="n">
         <f aca="false">COUNTIF(L60,"scarf")</f>
         <v>0</v>
@@ -3655,7 +3651,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="0"/>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F61" s="9"/>
@@ -3664,17 +3660,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="10"/>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="L61" s="17"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="10" t="n">
         <f aca="false">COUNTIF(L61,"sneakers")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="9"/>
@@ -3686,7 +3682,7 @@
         <f aca="false">COUNTBLANK(F51:F61)</f>
         <v>11</v>
       </c>
-      <c r="F62" s="15" t="n">
+      <c r="F62" s="14" t="n">
         <f aca="false">SUM(G51:G61)</f>
         <v>0</v>
       </c>
@@ -3696,17 +3692,17 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="L62" s="17"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="10" t="n">
         <f aca="false">COUNTIF(L62,"cardigan")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C63" s="9"/>
@@ -3722,17 +3718,17 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="10" t="n">
         <f aca="false">COUNTIF(L63,"pants")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="9"/>
@@ -3743,7 +3739,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="8" t="s">
         <v>212</v>
       </c>
       <c r="I64" s="9"/>
@@ -3751,17 +3747,17 @@
         <f aca="false">COUNTIF(I64,"it's")</f>
         <v>0</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L64" s="17"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="10" t="n">
         <f aca="false">COUNTIF(L64,"shoes")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="9"/>
@@ -3769,7 +3765,7 @@
         <f aca="false">COUNTIF(C65,"in april")</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>215</v>
       </c>
       <c r="F65" s="9"/>
@@ -3777,7 +3773,7 @@
         <f aca="false">COUNTIF(F65,"husband")</f>
         <v>0</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="8" t="s">
         <v>216</v>
       </c>
       <c r="I65" s="9"/>
@@ -3785,17 +3781,17 @@
         <f aca="false">COUNTIF(I65,"exactly")</f>
         <v>0</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L65" s="17"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="10" t="n">
         <f aca="false">COUNTIF(L65,"cap")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="9"/>
@@ -3803,7 +3799,7 @@
         <f aca="false">COUNTIF(C66,"in may")</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F66" s="9"/>
@@ -3811,7 +3807,7 @@
         <f aca="false">COUNTIF(F66,"father")</f>
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="8" t="s">
         <v>220</v>
       </c>
       <c r="I66" s="9"/>
@@ -3819,17 +3815,17 @@
         <f aca="false">COUNTIF(I66,"almost")</f>
         <v>0</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L66" s="17"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="10" t="n">
         <f aca="false">COUNTIF(L66,"hat")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="9"/>
@@ -3837,7 +3833,7 @@
         <f aca="false">COUNTIF(C67,"in june")</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F67" s="9"/>
@@ -3845,7 +3841,7 @@
         <f aca="false">COUNTIF(F67,"fiancee")</f>
         <v>0</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="8" t="s">
         <v>224</v>
       </c>
       <c r="I67" s="9"/>
@@ -3853,17 +3849,17 @@
         <f aca="false">COUNTIF(I67,"just gone")</f>
         <v>0</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="10" t="n">
         <f aca="false">COUNTIF(L67,"headgear")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C68" s="9"/>
@@ -3871,7 +3867,7 @@
         <f aca="false">COUNTIF(C68,"in july")</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F68" s="9"/>
@@ -3879,7 +3875,7 @@
         <f aca="false">COUNTIF(F68,"sister")</f>
         <v>0</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="8" t="s">
         <v>228</v>
       </c>
       <c r="I68" s="9"/>
@@ -3887,17 +3883,17 @@
         <f aca="false">COUNTIF(I68,"quarter")</f>
         <v>0</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="L68" s="17"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="10" t="n">
         <f aca="false">COUNTIF(L68,"jacket")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C69" s="9"/>
@@ -3905,7 +3901,7 @@
         <f aca="false">COUNTIF(C69,"in august")</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="8" t="s">
         <v>231</v>
       </c>
       <c r="F69" s="9"/>
@@ -3913,7 +3909,7 @@
         <f aca="false">COUNTIF(F69,"brother")</f>
         <v>0</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="8" t="s">
         <v>232</v>
       </c>
       <c r="I69" s="9"/>
@@ -3921,17 +3917,17 @@
         <f aca="false">COUNTIF(I69,"half")</f>
         <v>0</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L69" s="18"/>
+      <c r="L69" s="17"/>
       <c r="M69" s="10" t="n">
         <f aca="false">COUNTIF(L69,"stockings")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C70" s="9"/>
@@ -3939,7 +3935,7 @@
         <f aca="false">COUNTIF(C70,"in september")</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="8" t="s">
         <v>235</v>
       </c>
       <c r="F70" s="9"/>
@@ -3947,7 +3943,7 @@
         <f aca="false">COUNTIF(F70,"stepmother")</f>
         <v>0</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="8" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="9"/>
@@ -3955,17 +3951,17 @@
         <f aca="false">COUNTIF(I70,"o'clock")</f>
         <v>0</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="L70" s="18"/>
+      <c r="L70" s="17"/>
       <c r="M70" s="10" t="n">
         <f aca="false">COUNTIF(L70,"thongs")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="9"/>
@@ -3973,7 +3969,7 @@
         <f aca="false">COUNTIF(C71,"in october")</f>
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F71" s="9"/>
@@ -3981,7 +3977,7 @@
         <f aca="false">COUNTIF(F71,"aunt")</f>
         <v>0</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="8" t="s">
         <v>240</v>
       </c>
       <c r="I71" s="9"/>
@@ -3989,17 +3985,17 @@
         <f aca="false">COUNTIF(I71,"past")</f>
         <v>0</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="L71" s="17"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="10" t="n">
         <f aca="false">COUNTIF(L71,"coat")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C72" s="9"/>
@@ -4007,7 +4003,7 @@
         <f aca="false">COUNTIF(C72,"in november")</f>
         <v>0</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F72" s="9"/>
@@ -4015,7 +4011,7 @@
         <f aca="false">COUNTIF(F72,"naphew")</f>
         <v>0</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="8" t="s">
         <v>244</v>
       </c>
       <c r="I72" s="9"/>
@@ -4023,17 +4019,17 @@
         <f aca="false">COUNTIF(I72,"to")</f>
         <v>0</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L72" s="18"/>
+      <c r="L72" s="17"/>
       <c r="M72" s="10" t="n">
         <f aca="false">COUNTIF(L72,"panties")</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C73" s="9"/>
@@ -4041,7 +4037,7 @@
         <f aca="false">COUNTIF(C73,"in december")</f>
         <v>0</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="8" t="s">
         <v>247</v>
       </c>
       <c r="F73" s="9"/>
@@ -4049,7 +4045,7 @@
         <f aca="false">COUNTIF(F73,"cousin")</f>
         <v>0</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="9"/>
@@ -4057,10 +4053,10 @@
         <f aca="false">COUNTIF(I73,"when")</f>
         <v>0</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L73" s="17"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="10" t="n">
         <f aca="false">COUNTIF(L73,"socks")</f>
         <v>0</v>
@@ -4071,12 +4067,12 @@
         <f aca="false">COUNTBLANK(C62:C73)</f>
         <v>12</v>
       </c>
-      <c r="C74" s="15" t="n">
+      <c r="C74" s="14" t="n">
         <f aca="false">SUM(D62:D73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F74" s="9"/>
@@ -4084,7 +4080,7 @@
         <f aca="false">COUNTIF(F74,"foster parents")</f>
         <v>0</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="8" t="s">
         <v>251</v>
       </c>
       <c r="I74" s="9"/>
@@ -4096,15 +4092,15 @@
         <f aca="false">COUNTBLANK(L54:L73)</f>
         <v>20</v>
       </c>
-      <c r="L74" s="15" t="n">
+      <c r="L74" s="14" t="n">
         <f aca="false">SUM(M54:M73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="19"/>
+      <c r="B75" s="18"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="8" t="s">
         <v>252</v>
       </c>
       <c r="F75" s="9"/>
@@ -4112,7 +4108,7 @@
         <f aca="false">COUNTIF(F75,"twins")</f>
         <v>0</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="8" t="s">
         <v>253</v>
       </c>
       <c r="I75" s="9"/>
@@ -4127,7 +4123,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="8" t="s">
         <v>255</v>
       </c>
       <c r="F76" s="9"/>
@@ -4135,7 +4131,7 @@
         <f aca="false">COUNTIF(F76,"wife")</f>
         <v>0</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="8" t="s">
         <v>256</v>
       </c>
       <c r="I76" s="9"/>
@@ -4145,7 +4141,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="19" t="s">
         <v>257</v>
       </c>
       <c r="C77" s="9"/>
@@ -4153,7 +4149,7 @@
         <f aca="false">COUNTIF(C77,"spring")</f>
         <v>0</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="8" t="s">
         <v>258</v>
       </c>
       <c r="F77" s="9"/>
@@ -4161,7 +4157,7 @@
         <f aca="false">COUNTIF(F77,"mother")</f>
         <v>0</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="8" t="s">
         <v>259</v>
       </c>
       <c r="I77" s="9"/>
@@ -4171,7 +4167,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="19" t="s">
         <v>260</v>
       </c>
       <c r="C78" s="9"/>
@@ -4179,7 +4175,7 @@
         <f aca="false">COUNTIF(C78,"summer")</f>
         <v>0</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="8" t="s">
         <v>261</v>
       </c>
       <c r="F78" s="9"/>
@@ -4187,7 +4183,7 @@
         <f aca="false">COUNTIF(F78,"father in law")</f>
         <v>0</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="8" t="s">
         <v>262</v>
       </c>
       <c r="I78" s="9"/>
@@ -4197,7 +4193,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C79" s="9"/>
@@ -4205,7 +4201,7 @@
         <f aca="false">COUNTIF(C79,"autumn")</f>
         <v>0</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F79" s="9"/>
@@ -4213,7 +4209,7 @@
         <f aca="false">COUNTIF(F79,"brother in law")</f>
         <v>0</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="8" t="s">
         <v>265</v>
       </c>
       <c r="I79" s="9"/>
@@ -4223,7 +4219,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>266</v>
       </c>
       <c r="C80" s="9"/>
@@ -4235,12 +4231,12 @@
         <f aca="false">COUNTBLANK(F65:F79)</f>
         <v>15</v>
       </c>
-      <c r="F80" s="15" t="n">
+      <c r="F80" s="14" t="n">
         <f aca="false">SUM(G65:G79)</f>
         <v>0</v>
       </c>
       <c r="G80" s="0"/>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="8" t="s">
         <v>267</v>
       </c>
       <c r="I80" s="9"/>
@@ -4254,13 +4250,13 @@
         <f aca="false">COUNTBLANK(C77:C80)</f>
         <v>4</v>
       </c>
-      <c r="C81" s="15" t="n">
+      <c r="C81" s="14" t="n">
         <f aca="false">SUM(D77:D80)</f>
         <v>0</v>
       </c>
       <c r="D81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="8" t="s">
         <v>268</v>
       </c>
       <c r="I81" s="9"/>
@@ -4280,7 +4276,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="8" t="s">
         <v>271</v>
       </c>
       <c r="I82" s="9"/>
@@ -4290,7 +4286,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="20" t="n">
+      <c r="B83" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C83" s="9"/>
@@ -4298,7 +4294,7 @@
         <f aca="false">COUNTIF(C83,"one")</f>
         <v>0</v>
       </c>
-      <c r="E83" s="20" t="n">
+      <c r="E83" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="9"/>
@@ -4306,7 +4302,7 @@
         <f aca="false">COUNTIF(F83,"the first")</f>
         <v>0</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="8" t="s">
         <v>272</v>
       </c>
       <c r="I83" s="9"/>
@@ -4316,7 +4312,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="20" t="n">
+      <c r="B84" s="19" t="n">
         <v>2</v>
       </c>
       <c r="C84" s="9"/>
@@ -4324,7 +4320,7 @@
         <f aca="false">COUNTIF(C84,"two")</f>
         <v>0</v>
       </c>
-      <c r="E84" s="20" t="n">
+      <c r="E84" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="9"/>
@@ -4332,7 +4328,7 @@
         <f aca="false">COUNTIF(F84,"second")</f>
         <v>0</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="8" t="s">
         <v>273</v>
       </c>
       <c r="I84" s="9"/>
@@ -4342,7 +4338,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="20" t="n">
+      <c r="B85" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C85" s="9"/>
@@ -4350,7 +4346,7 @@
         <f aca="false">COUNTIF(C85,"three")</f>
         <v>0</v>
       </c>
-      <c r="E85" s="20" t="n">
+      <c r="E85" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F85" s="9"/>
@@ -4358,7 +4354,7 @@
         <f aca="false">COUNTIF(F85,"third")</f>
         <v>0</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="8" t="s">
         <v>274</v>
       </c>
       <c r="I85" s="9"/>
@@ -4368,7 +4364,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="20" t="n">
+      <c r="B86" s="19" t="n">
         <v>4</v>
       </c>
       <c r="C86" s="9"/>
@@ -4376,7 +4372,7 @@
         <f aca="false">COUNTIF(C86,"four")</f>
         <v>0</v>
       </c>
-      <c r="E86" s="20" t="n">
+      <c r="E86" s="19" t="n">
         <v>4</v>
       </c>
       <c r="F86" s="9"/>
@@ -4384,7 +4380,7 @@
         <f aca="false">COUNTIF(F86,"fourth")</f>
         <v>0</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="8" t="s">
         <v>275</v>
       </c>
       <c r="I86" s="9"/>
@@ -4394,7 +4390,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="20" t="n">
+      <c r="B87" s="19" t="n">
         <v>5</v>
       </c>
       <c r="C87" s="9"/>
@@ -4402,7 +4398,7 @@
         <f aca="false">COUNTIF(C87,"five")</f>
         <v>0</v>
       </c>
-      <c r="E87" s="20" t="n">
+      <c r="E87" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="9"/>
@@ -4410,7 +4406,7 @@
         <f aca="false">COUNTIF(F87,"fifth")</f>
         <v>0</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="8" t="s">
         <v>276</v>
       </c>
       <c r="I87" s="9"/>
@@ -4420,7 +4416,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="20" t="n">
+      <c r="B88" s="19" t="n">
         <v>6</v>
       </c>
       <c r="C88" s="9"/>
@@ -4428,7 +4424,7 @@
         <f aca="false">COUNTIF(C88,"six")</f>
         <v>0</v>
       </c>
-      <c r="E88" s="20" t="n">
+      <c r="E88" s="19" t="n">
         <v>6</v>
       </c>
       <c r="F88" s="9"/>
@@ -4436,7 +4432,7 @@
         <f aca="false">COUNTIF(F88,"sixth")</f>
         <v>0</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="8" t="s">
         <v>277</v>
       </c>
       <c r="I88" s="9"/>
@@ -4446,7 +4442,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="20" t="n">
+      <c r="B89" s="19" t="n">
         <v>7</v>
       </c>
       <c r="C89" s="9"/>
@@ -4454,7 +4450,7 @@
         <f aca="false">COUNTIF(C89,"seven")</f>
         <v>0</v>
       </c>
-      <c r="E89" s="20" t="n">
+      <c r="E89" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F89" s="9"/>
@@ -4462,7 +4458,7 @@
         <f aca="false">COUNTIF(F89,"seventh")</f>
         <v>0</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="8" t="s">
         <v>278</v>
       </c>
       <c r="I89" s="9"/>
@@ -4472,7 +4468,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="20" t="n">
+      <c r="B90" s="19" t="n">
         <v>8</v>
       </c>
       <c r="C90" s="9"/>
@@ -4480,7 +4476,7 @@
         <f aca="false">COUNTIF(C90,"eight")</f>
         <v>0</v>
       </c>
-      <c r="E90" s="20" t="n">
+      <c r="E90" s="19" t="n">
         <v>8</v>
       </c>
       <c r="F90" s="9"/>
@@ -4488,7 +4484,7 @@
         <f aca="false">COUNTIF(F90,"eighth")</f>
         <v>0</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="8" t="s">
         <v>279</v>
       </c>
       <c r="I90" s="9"/>
@@ -4498,7 +4494,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="20" t="n">
+      <c r="B91" s="19" t="n">
         <v>9</v>
       </c>
       <c r="C91" s="9"/>
@@ -4506,7 +4502,7 @@
         <f aca="false">COUNTIF(C91,"nine")</f>
         <v>0</v>
       </c>
-      <c r="E91" s="20" t="n">
+      <c r="E91" s="19" t="n">
         <v>9</v>
       </c>
       <c r="F91" s="9"/>
@@ -4514,7 +4510,7 @@
         <f aca="false">COUNTIF(F91,"ninth")</f>
         <v>0</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="8" t="s">
         <v>280</v>
       </c>
       <c r="I91" s="9"/>
@@ -4524,7 +4520,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="20" t="n">
+      <c r="B92" s="19" t="n">
         <v>10</v>
       </c>
       <c r="C92" s="9"/>
@@ -4532,7 +4528,7 @@
         <f aca="false">COUNTIF(C92,"ten")</f>
         <v>0</v>
       </c>
-      <c r="E92" s="20" t="n">
+      <c r="E92" s="19" t="n">
         <v>10</v>
       </c>
       <c r="F92" s="9"/>
@@ -4540,7 +4536,7 @@
         <f aca="false">COUNTIF(F92,"tenth")</f>
         <v>0</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="8" t="s">
         <v>281</v>
       </c>
       <c r="I92" s="9"/>
@@ -4550,7 +4546,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="20" t="n">
+      <c r="B93" s="19" t="n">
         <v>11</v>
       </c>
       <c r="C93" s="9"/>
@@ -4558,7 +4554,7 @@
         <f aca="false">COUNTIF(C93,"eleven")</f>
         <v>0</v>
       </c>
-      <c r="E93" s="20" t="n">
+      <c r="E93" s="19" t="n">
         <v>11</v>
       </c>
       <c r="F93" s="9"/>
@@ -4566,7 +4562,7 @@
         <f aca="false">COUNTIF(F93,"eleventh")</f>
         <v>0</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I93" s="9"/>
@@ -4576,7 +4572,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="20" t="n">
+      <c r="B94" s="19" t="n">
         <v>12</v>
       </c>
       <c r="C94" s="9"/>
@@ -4584,7 +4580,7 @@
         <f aca="false">COUNTIF(C94,"twelve")</f>
         <v>0</v>
       </c>
-      <c r="E94" s="20" t="n">
+      <c r="E94" s="19" t="n">
         <v>12</v>
       </c>
       <c r="F94" s="9"/>
@@ -4592,7 +4588,7 @@
         <f aca="false">COUNTIF(F94,"twelfth")</f>
         <v>0</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="8" t="s">
         <v>283</v>
       </c>
       <c r="I94" s="9"/>
@@ -4602,7 +4598,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="20" t="n">
+      <c r="B95" s="19" t="n">
         <v>13</v>
       </c>
       <c r="C95" s="9"/>
@@ -4610,7 +4606,7 @@
         <f aca="false">COUNTIF(C95,"thirteen")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="20" t="n">
+      <c r="E95" s="19" t="n">
         <v>13</v>
       </c>
       <c r="F95" s="9"/>
@@ -4622,14 +4618,14 @@
         <f aca="false">COUNTBLANK(I64:I94)</f>
         <v>31</v>
       </c>
-      <c r="I95" s="21" t="n">
+      <c r="I95" s="20" t="n">
         <f aca="false">SUM(J64:J94)</f>
         <v>0</v>
       </c>
       <c r="J95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="20" t="n">
+      <c r="B96" s="19" t="n">
         <v>14</v>
       </c>
       <c r="C96" s="9"/>
@@ -4637,7 +4633,7 @@
         <f aca="false">COUNTIF(C96,"fourteen")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="20" t="n">
+      <c r="E96" s="19" t="n">
         <v>14</v>
       </c>
       <c r="F96" s="9"/>
@@ -4648,7 +4644,7 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="20" t="n">
+      <c r="B97" s="19" t="n">
         <v>15</v>
       </c>
       <c r="C97" s="9"/>
@@ -4656,7 +4652,7 @@
         <f aca="false">COUNTIF(C97,"fifteen")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="20" t="n">
+      <c r="E97" s="19" t="n">
         <v>15</v>
       </c>
       <c r="F97" s="9"/>
@@ -4671,7 +4667,7 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="20" t="n">
+      <c r="B98" s="19" t="n">
         <v>16</v>
       </c>
       <c r="C98" s="9"/>
@@ -4679,7 +4675,7 @@
         <f aca="false">COUNTIF(C98,"sixteen")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="20" t="n">
+      <c r="E98" s="19" t="n">
         <v>16</v>
       </c>
       <c r="F98" s="9"/>
@@ -4692,7 +4688,7 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="20" t="n">
+      <c r="B99" s="19" t="n">
         <v>17</v>
       </c>
       <c r="C99" s="9"/>
@@ -4700,7 +4696,7 @@
         <f aca="false">COUNTIF(C99,"seventeen")</f>
         <v>0</v>
       </c>
-      <c r="E99" s="20" t="n">
+      <c r="E99" s="19" t="n">
         <v>17</v>
       </c>
       <c r="F99" s="9"/>
@@ -4708,7 +4704,7 @@
         <f aca="false">COUNTIF(F99,"seventeenth")</f>
         <v>0</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="8" t="s">
         <v>285</v>
       </c>
       <c r="I99" s="9"/>
@@ -4718,7 +4714,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="20" t="n">
+      <c r="B100" s="19" t="n">
         <v>18</v>
       </c>
       <c r="C100" s="9"/>
@@ -4726,7 +4722,7 @@
         <f aca="false">COUNTIF(C100,"eighteen")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="20" t="n">
+      <c r="E100" s="19" t="n">
         <v>18</v>
       </c>
       <c r="F100" s="9"/>
@@ -4734,7 +4730,7 @@
         <f aca="false">COUNTIF(F100,"eighteenth")</f>
         <v>0</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="8" t="s">
         <v>286</v>
       </c>
       <c r="I100" s="9"/>
@@ -4744,7 +4740,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="20" t="n">
+      <c r="B101" s="19" t="n">
         <v>19</v>
       </c>
       <c r="C101" s="9"/>
@@ -4752,7 +4748,7 @@
         <f aca="false">COUNTIF(C101,"nineteen")</f>
         <v>0</v>
       </c>
-      <c r="E101" s="20" t="n">
+      <c r="E101" s="19" t="n">
         <v>19</v>
       </c>
       <c r="F101" s="9"/>
@@ -4760,7 +4756,7 @@
         <f aca="false">COUNTIF(F101,"nineteenth")</f>
         <v>0</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="8" t="s">
         <v>287</v>
       </c>
       <c r="I101" s="9"/>
@@ -4770,7 +4766,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="20" t="n">
+      <c r="B102" s="19" t="n">
         <v>20</v>
       </c>
       <c r="C102" s="9"/>
@@ -4778,7 +4774,7 @@
         <f aca="false">COUNTIF(C102,"twenty")</f>
         <v>0</v>
       </c>
-      <c r="E102" s="20" t="n">
+      <c r="E102" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F102" s="9"/>
@@ -4786,7 +4782,7 @@
         <f aca="false">COUNTIF(F102,"twentieth")</f>
         <v>0</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="8" t="s">
         <v>288</v>
       </c>
       <c r="I102" s="9"/>
@@ -4796,7 +4792,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="20" t="n">
+      <c r="B103" s="19" t="n">
         <v>30</v>
       </c>
       <c r="C103" s="9"/>
@@ -4804,7 +4800,7 @@
         <f aca="false">COUNTIF(C103,"thirty")</f>
         <v>0</v>
       </c>
-      <c r="E103" s="20" t="n">
+      <c r="E103" s="19" t="n">
         <v>21</v>
       </c>
       <c r="F103" s="9"/>
@@ -4812,7 +4808,7 @@
         <f aca="false">COUNTIF(F103,"twenty first")</f>
         <v>0</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="8" t="s">
         <v>289</v>
       </c>
       <c r="I103" s="9"/>
@@ -4822,7 +4818,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="20" t="n">
+      <c r="B104" s="19" t="n">
         <v>40</v>
       </c>
       <c r="C104" s="9"/>
@@ -4830,7 +4826,7 @@
         <f aca="false">COUNTIF(C104,"forty")</f>
         <v>0</v>
       </c>
-      <c r="E104" s="20" t="n">
+      <c r="E104" s="19" t="n">
         <v>22</v>
       </c>
       <c r="F104" s="9"/>
@@ -4838,7 +4834,7 @@
         <f aca="false">COUNTIF(F104,"twenty second")</f>
         <v>0</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" s="8" t="s">
         <v>290</v>
       </c>
       <c r="I104" s="9"/>
@@ -4848,7 +4844,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="20" t="n">
+      <c r="B105" s="19" t="n">
         <v>50</v>
       </c>
       <c r="C105" s="9"/>
@@ -4856,7 +4852,7 @@
         <f aca="false">COUNTIF(C105,"fifty")</f>
         <v>0</v>
       </c>
-      <c r="E105" s="20" t="n">
+      <c r="E105" s="19" t="n">
         <v>23</v>
       </c>
       <c r="F105" s="9"/>
@@ -4864,7 +4860,7 @@
         <f aca="false">COUNTIF(F105,"twenty third")</f>
         <v>0</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="8" t="s">
         <v>244</v>
       </c>
       <c r="I105" s="9"/>
@@ -4874,7 +4870,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="20" t="n">
+      <c r="B106" s="19" t="n">
         <v>60</v>
       </c>
       <c r="C106" s="9"/>
@@ -4882,7 +4878,7 @@
         <f aca="false">COUNTIF(C106,"sixty")</f>
         <v>0</v>
       </c>
-      <c r="E106" s="20" t="n">
+      <c r="E106" s="19" t="n">
         <v>30</v>
       </c>
       <c r="F106" s="9"/>
@@ -4890,7 +4886,7 @@
         <f aca="false">COUNTIF(F106,"thirtieth")</f>
         <v>0</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" s="8" t="s">
         <v>291</v>
       </c>
       <c r="I106" s="9"/>
@@ -4900,7 +4896,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="20" t="n">
+      <c r="B107" s="19" t="n">
         <v>70</v>
       </c>
       <c r="C107" s="9"/>
@@ -4908,7 +4904,7 @@
         <f aca="false">COUNTIF(C107,"seventy")</f>
         <v>0</v>
       </c>
-      <c r="E107" s="20" t="n">
+      <c r="E107" s="19" t="n">
         <v>31</v>
       </c>
       <c r="F107" s="9"/>
@@ -4916,7 +4912,7 @@
         <f aca="false">COUNTIF(F107,"thirty first")</f>
         <v>0</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H107" s="8" t="s">
         <v>292</v>
       </c>
       <c r="I107" s="9"/>
@@ -4926,7 +4922,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="20" t="n">
+      <c r="B108" s="19" t="n">
         <v>80</v>
       </c>
       <c r="C108" s="9"/>
@@ -4934,7 +4930,7 @@
         <f aca="false">COUNTIF(C108,"eighty")</f>
         <v>0</v>
       </c>
-      <c r="E108" s="20" t="n">
+      <c r="E108" s="19" t="n">
         <v>40</v>
       </c>
       <c r="F108" s="9"/>
@@ -4942,7 +4938,7 @@
         <f aca="false">COUNTIF(F108,"fortieth")</f>
         <v>0</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H108" s="8" t="s">
         <v>293</v>
       </c>
       <c r="I108" s="9"/>
@@ -4952,7 +4948,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="20" t="n">
+      <c r="B109" s="19" t="n">
         <v>90</v>
       </c>
       <c r="C109" s="9"/>
@@ -4960,7 +4956,7 @@
         <f aca="false">COUNTIF(C109,"ninety")</f>
         <v>0</v>
       </c>
-      <c r="E109" s="20" t="n">
+      <c r="E109" s="19" t="n">
         <v>50</v>
       </c>
       <c r="F109" s="9"/>
@@ -4968,7 +4964,7 @@
         <f aca="false">COUNTIF(F109,"fiftieth")</f>
         <v>0</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" s="8" t="s">
         <v>294</v>
       </c>
       <c r="I109" s="9"/>
@@ -4978,7 +4974,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="20" t="n">
+      <c r="B110" s="19" t="n">
         <v>100</v>
       </c>
       <c r="C110" s="9"/>
@@ -4986,7 +4982,7 @@
         <f aca="false">COUNTIF(C110,"one hundred")</f>
         <v>0</v>
       </c>
-      <c r="E110" s="20" t="n">
+      <c r="E110" s="19" t="n">
         <v>60</v>
       </c>
       <c r="F110" s="9"/>
@@ -4998,14 +4994,14 @@
         <f aca="false">COUNTBLANK(I99:I109)</f>
         <v>11</v>
       </c>
-      <c r="I110" s="15" t="n">
+      <c r="I110" s="14" t="n">
         <f aca="false">SUM(J99:J109)</f>
         <v>0</v>
       </c>
       <c r="J110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="20" t="n">
+      <c r="B111" s="19" t="n">
         <v>109</v>
       </c>
       <c r="C111" s="9"/>
@@ -5013,7 +5009,7 @@
         <f aca="false">COUNTIF(C111,"one hundred and nine")</f>
         <v>0</v>
       </c>
-      <c r="E111" s="20" t="n">
+      <c r="E111" s="19" t="n">
         <v>70</v>
       </c>
       <c r="F111" s="9"/>
@@ -5024,7 +5020,7 @@
       <c r="J111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="20" t="n">
+      <c r="B112" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C112" s="9"/>
@@ -5032,7 +5028,7 @@
         <f aca="false">COUNTIF(C112,"two hundred")</f>
         <v>0</v>
       </c>
-      <c r="E112" s="20" t="n">
+      <c r="E112" s="19" t="n">
         <v>80</v>
       </c>
       <c r="F112" s="9"/>
@@ -5049,7 +5045,7 @@
       <c r="J112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="20" t="n">
+      <c r="B113" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="C113" s="9"/>
@@ -5057,7 +5053,7 @@
         <f aca="false">COUNTIF(C113,"one thousand")</f>
         <v>0</v>
       </c>
-      <c r="E113" s="20" t="n">
+      <c r="E113" s="19" t="n">
         <v>90</v>
       </c>
       <c r="F113" s="9"/>
@@ -5070,7 +5066,7 @@
       <c r="J113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="22" t="n">
+      <c r="B114" s="21" t="n">
         <v>100000</v>
       </c>
       <c r="C114" s="9"/>
@@ -5078,7 +5074,7 @@
         <f aca="false">COUNTIF(C114,"one hundred thousand")</f>
         <v>0</v>
       </c>
-      <c r="E114" s="20" t="n">
+      <c r="E114" s="19" t="n">
         <v>100</v>
       </c>
       <c r="F114" s="9"/>
@@ -5086,7 +5082,7 @@
         <f aca="false">COUNTIF(F114,"one hundredth")</f>
         <v>0</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="8" t="s">
         <v>297</v>
       </c>
       <c r="I114" s="9"/>
@@ -5100,12 +5096,12 @@
         <f aca="false">COUNTBLANK(C83:C114)</f>
         <v>32</v>
       </c>
-      <c r="C115" s="15" t="n">
+      <c r="C115" s="14" t="n">
         <f aca="false">SUM(D83:D114)</f>
         <v>0</v>
       </c>
       <c r="D115" s="10"/>
-      <c r="E115" s="20" t="n">
+      <c r="E115" s="19" t="n">
         <v>200</v>
       </c>
       <c r="F115" s="9"/>
@@ -5113,7 +5109,7 @@
         <f aca="false">COUNTIF(F115,"two hundredth")</f>
         <v>0</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="8" t="s">
         <v>298</v>
       </c>
       <c r="I115" s="9"/>
@@ -5128,7 +5124,7 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="20" t="n">
+      <c r="E116" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="F116" s="9"/>
@@ -5136,7 +5132,7 @@
         <f aca="false">COUNTIF(F116,"one thousandth")</f>
         <v>0</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="8" t="s">
         <v>300</v>
       </c>
       <c r="I116" s="9"/>
@@ -5149,7 +5145,7 @@
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="22" t="n">
+      <c r="E117" s="21" t="n">
         <v>100000</v>
       </c>
       <c r="F117" s="9"/>
@@ -5157,7 +5153,7 @@
         <f aca="false">COUNTIF(F117,"one hundred thousandth")</f>
         <v>0</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="8" t="s">
         <v>301</v>
       </c>
       <c r="I117" s="9"/>
@@ -5176,11 +5172,11 @@
         <f aca="false">COUNTBLANK(F83:F117)</f>
         <v>35</v>
       </c>
-      <c r="F118" s="15" t="n">
+      <c r="F118" s="14" t="n">
         <f aca="false">SUM(G83:G117)</f>
         <v>0</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="8" t="s">
         <v>303</v>
       </c>
       <c r="I118" s="9"/>
@@ -5190,7 +5186,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C119" s="9"/>
@@ -5198,7 +5194,7 @@
         <f aca="false">COUNTIF(C119,"child")</f>
         <v>0</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="8" t="s">
         <v>305</v>
       </c>
       <c r="I119" s="9"/>
@@ -5208,7 +5204,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C120" s="9"/>
@@ -5216,7 +5212,7 @@
         <f aca="false">COUNTIF(C120,"tooth")</f>
         <v>0</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="8" t="s">
         <v>307</v>
       </c>
       <c r="I120" s="9"/>
@@ -5226,7 +5222,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C121" s="9"/>
@@ -5234,7 +5230,7 @@
         <f aca="false">COUNTIF(C121,"man")</f>
         <v>0</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="8" t="s">
         <v>307</v>
       </c>
       <c r="I121" s="9"/>
@@ -5244,7 +5240,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C122" s="9"/>
@@ -5252,7 +5248,7 @@
         <f aca="false">COUNTIF(C122,"woman")</f>
         <v>0</v>
       </c>
-      <c r="H122" s="11" t="s">
+      <c r="H122" s="8" t="s">
         <v>310</v>
       </c>
       <c r="I122" s="9"/>
@@ -5262,7 +5258,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C123" s="9"/>
@@ -5270,7 +5266,7 @@
         <f aca="false">COUNTIF(C123,"foot")</f>
         <v>0</v>
       </c>
-      <c r="H123" s="11" t="s">
+      <c r="H123" s="8" t="s">
         <v>312</v>
       </c>
       <c r="I123" s="9"/>
@@ -5280,7 +5276,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C124" s="9"/>
@@ -5288,7 +5284,7 @@
         <f aca="false">COUNTIF(C124,"person")</f>
         <v>0</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="8" t="s">
         <v>314</v>
       </c>
       <c r="I124" s="9"/>
@@ -5302,12 +5298,12 @@
         <f aca="false">COUNTBLANK(C119:C124)</f>
         <v>6</v>
       </c>
-      <c r="C125" s="23" t="n">
+      <c r="C125" s="22" t="n">
         <f aca="false">SUM(D119:D124)</f>
         <v>0</v>
       </c>
       <c r="D125" s="10"/>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="8" t="s">
         <v>315</v>
       </c>
       <c r="I125" s="9"/>
@@ -5322,7 +5318,7 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="10"/>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="8" t="s">
         <v>317</v>
       </c>
       <c r="I126" s="9"/>
@@ -5332,7 +5328,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="8" t="s">
         <v>318</v>
       </c>
       <c r="C127" s="9"/>
@@ -5340,7 +5336,7 @@
         <f aca="false">COUNTIF(C127,"children")</f>
         <v>0</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="8" t="s">
         <v>319</v>
       </c>
       <c r="I127" s="9"/>
@@ -5350,7 +5346,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C128" s="9"/>
@@ -5358,7 +5354,7 @@
         <f aca="false">COUNTIF(C128,"teeth")</f>
         <v>0</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="8" t="s">
         <v>321</v>
       </c>
       <c r="I128" s="9"/>
@@ -5368,7 +5364,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C129" s="9"/>
@@ -5376,7 +5372,7 @@
         <f aca="false">COUNTIF(C129,"men")</f>
         <v>0</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="8" t="s">
         <v>323</v>
       </c>
       <c r="I129" s="9"/>
@@ -5386,7 +5382,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C130" s="9"/>
@@ -5394,7 +5390,7 @@
         <f aca="false">COUNTIF(C130,"women")</f>
         <v>0</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H130" s="8" t="s">
         <v>325</v>
       </c>
       <c r="I130" s="9"/>
@@ -5404,7 +5400,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C131" s="9"/>
@@ -5416,13 +5412,13 @@
         <f aca="false">COUNTBLANK(I114:I130)</f>
         <v>17</v>
       </c>
-      <c r="I131" s="15" t="n">
+      <c r="I131" s="14" t="n">
         <f aca="false">SUM(J114:J130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C132" s="9"/>
@@ -5436,7 +5432,7 @@
         <f aca="false">COUNTBLANK(C127:C132)</f>
         <v>6</v>
       </c>
-      <c r="C133" s="15" t="n">
+      <c r="C133" s="14" t="n">
         <f aca="false">SUM(D127:D132)</f>
         <v>0</v>
       </c>
@@ -5484,793 +5480,793 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.12145748987854"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="5.50607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.73279352226721"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="n">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="n">
         <f aca="false">COUNTIF(B2,"was/were")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="26" t="n">
         <f aca="false">COUNTIF(C2,"been")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27" t="n">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26" t="n">
         <f aca="false">COUNTIF(G2,"sang")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">COUNTIF(H2,"sung")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="27" t="n">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <f aca="false">COUNTIF(C3,"become")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="27" t="n">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="26" t="n">
         <f aca="false">COUNTIF(G3,"sat")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="27" t="n">
+      <c r="J3" s="26" t="n">
         <f aca="false">COUNTIF(H3,"sat")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="O3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="27" t="n">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26" t="n">
         <f aca="false">COUNTIF(B4,"broke")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <f aca="false">COUNTIF(C4,"broken")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="27" t="n">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="26" t="n">
         <f aca="false">COUNTIF(G4,"slept")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="26" t="n">
         <f aca="false">COUNTIF(H4,"slept")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="O4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="27" t="n">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26" t="n">
         <f aca="false">COUNTIF(B5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="26" t="n">
         <f aca="false">COUNTIF(C5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="27" t="n">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="26" t="n">
         <f aca="false">COUNTIF(G5,"spoke")</f>
         <v>0</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="26" t="n">
         <f aca="false">COUNTIF(H5,"spoken")</f>
         <v>0</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="O5" s="29"/>
+      <c r="K5" s="27"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="27" t="n">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26" t="n">
         <f aca="false">COUNTIF(B6,"bought")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="26" t="n">
         <f aca="false">COUNTIF(C6,"bought")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="27" t="n">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="26" t="n">
         <f aca="false">COUNTIF(G6,"spent")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27" t="n">
+      <c r="J6" s="26" t="n">
         <f aca="false">COUNTIF(H6,"spent")</f>
         <v>0</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="O6" s="29"/>
+      <c r="K6" s="27"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="27" t="n">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="26" t="n">
         <f aca="false">COUNTIF(B7,"came")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="26" t="n">
         <f aca="false">COUNTIF(C7,"come")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="27" t="n">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="26" t="n">
         <f aca="false">COUNTIF(G7,"stood")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="26" t="n">
         <f aca="false">COUNTIF(H7,"stood")</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="O7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="27" t="n">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="26" t="n">
         <f aca="false">COUNTIF(B8,"did")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="26" t="n">
         <f aca="false">COUNTIF(C8,"done")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="27" t="n">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="26" t="n">
         <f aca="false">COUNTIF(G8,"stole")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="26" t="n">
         <f aca="false">COUNTIF(H8,"stolen")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="K8" s="27"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="27" t="n">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="26" t="n">
         <f aca="false">COUNTIF(B9,"drank")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="26" t="n">
         <f aca="false">COUNTIF(C9,"drunk")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="27" t="n">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="26" t="n">
         <f aca="false">COUNTIF(G9,"swam")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27" t="n">
+      <c r="J9" s="26" t="n">
         <f aca="false">COUNTIF(H9,"swum")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="O9" s="29"/>
+      <c r="K9" s="27"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="27" t="n">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="26" t="n">
         <f aca="false">COUNTIF(C10,"driven")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="27" t="n">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="26" t="n">
         <f aca="false">COUNTIF(G10,"took")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="27" t="n">
+      <c r="J10" s="26" t="n">
         <f aca="false">COUNTIF(H10,"taken")</f>
         <v>0</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="K10" s="27"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="27" t="n">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="26" t="n">
         <f aca="false">COUNTIF(B11,"ate")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="26" t="n">
         <f aca="false">COUNTIF(C11,"eaten")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="27" t="n">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="26" t="n">
         <f aca="false">COUNTIF(G11,"taught")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="26" t="n">
         <f aca="false">COUNTIF(H11,"taught")</f>
         <v>0</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="27" t="n">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="26" t="n">
         <f aca="false">COUNTIF(C12,"fallen")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="27" t="n">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="26" t="n">
         <f aca="false">COUNTIF(G12,"thought")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="J12" s="26" t="n">
         <f aca="false">COUNTIF(H12,"thought")</f>
         <v>0</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="27" t="n">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="26" t="n">
         <f aca="false">COUNTIF(B13,"forgot")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="26" t="n">
         <f aca="false">COUNTIF(C13,"forgotten")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="27" t="n">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="26" t="n">
         <f aca="false">COUNTIF(G13,"understood")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="26" t="n">
         <f aca="false">COUNTIF(H13,"sung")</f>
         <v>0</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="27" t="n">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="26" t="n">
         <f aca="false">COUNTIF(C14,"forgiven")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27" t="n">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="26" t="n">
         <f aca="false">COUNTIF(G14,"woke")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="27" t="n">
+      <c r="J14" s="26" t="n">
         <f aca="false">COUNTIF(H14,"woken")</f>
         <v>0</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="27" t="n">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="26" t="n">
         <f aca="false">COUNTIF(B15,"got")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="26" t="n">
         <f aca="false">COUNTIF(C15,"got")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="27" t="n">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="26" t="n">
         <f aca="false">COUNTIF(G15,"won")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="27" t="n">
+      <c r="J15" s="26" t="n">
         <f aca="false">COUNTIF(H15,"won")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="27" t="n">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="26" t="n">
         <f aca="false">COUNTIF(C16,"given")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="27" t="n">
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="26" t="n">
         <f aca="false">COUNTIF(G16,"wrote")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="27" t="n">
+      <c r="J16" s="26" t="n">
         <f aca="false">COUNTIF(H16,"written")</f>
         <v>0</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="27" t="n">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="26" t="n">
         <f aca="false">COUNTIF(B17,"went")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="26" t="n">
         <f aca="false">COUNTIF(C17,"gone")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="27" t="n">
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="26" t="n">
         <f aca="false">COUNTIF(G17,"chose")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="27" t="n">
+      <c r="J17" s="26" t="n">
         <f aca="false">COUNTIF(H17,"chosen")</f>
         <v>0</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27" t="n">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="26" t="n">
         <f aca="false">COUNTIF(B18,"had")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="26" t="n">
         <f aca="false">COUNTIF(C18,"had")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="27" t="n">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26" t="n">
         <f aca="false">COUNTIF(G18,"cut")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27" t="n">
+      <c r="J18" s="26" t="n">
         <f aca="false">COUNTIF(H18,"cut")</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="27" t="n">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26" t="n">
         <f aca="false">COUNTIF(B19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="26" t="n">
         <f aca="false">COUNTIF(C19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="27" t="n">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="26" t="n">
         <f aca="false">COUNTIF(G19,"found")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="27" t="n">
+      <c r="J19" s="26" t="n">
         <f aca="false">COUNTIF(H19,"found")</f>
         <v>0</v>
       </c>
-      <c r="O19" s="29"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="27" t="n">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="26" t="n">
         <f aca="false">COUNTIF(B20,"knew")</f>
         <v>0</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">COUNTIF(C20,"known")</f>
         <v>0</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="27" t="n">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="26" t="n">
         <f aca="false">COUNTIF(G20,"began")</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="26" t="n">
         <f aca="false">COUNTIF(H20,"begun")</f>
         <v>0</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="27" t="n">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="26" t="n">
         <f aca="false">COUNTIF(B21,"left")</f>
         <v>0</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="26" t="n">
         <f aca="false">COUNTIF(C21,"left")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="27" t="n">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="26" t="n">
         <f aca="false">COUNTIF(G21,"built")</f>
         <v>0</v>
       </c>
-      <c r="J21" s="27" t="n">
+      <c r="J21" s="26" t="n">
         <f aca="false">COUNTIF(H21,"built")</f>
         <v>0</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="27" t="n">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26" t="n">
         <f aca="false">COUNTIF(B22,"let")</f>
         <v>0</v>
       </c>
-      <c r="E22" s="27" t="n">
+      <c r="E22" s="26" t="n">
         <f aca="false">COUNTIF(C22,"let")</f>
         <v>0</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="27" t="n">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="26" t="n">
         <f aca="false">COUNTIF(G22,"rode")</f>
         <v>0</v>
       </c>
-      <c r="J22" s="27" t="n">
+      <c r="J22" s="26" t="n">
         <f aca="false">COUNTIF(H22,"ridden")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="29"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="27" t="n">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="26" t="n">
         <f aca="false">COUNTIF(B23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="27" t="n">
+      <c r="E23" s="26" t="n">
         <f aca="false">COUNTIF(C23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="27" t="n">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="26" t="n">
         <f aca="false">COUNTIF(G23,"sent")</f>
         <v>0</v>
       </c>
-      <c r="J23" s="27" t="n">
+      <c r="J23" s="26" t="n">
         <f aca="false">COUNTIF(H23,"sent")</f>
         <v>0</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="27" t="n">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="26" t="n">
         <f aca="false">COUNTIF(B24,"made")</f>
         <v>0</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="26" t="n">
         <f aca="false">COUNTIF(C24,"made")</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="27" t="n">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="26" t="n">
         <f aca="false">COUNTIF(G24,"flew")</f>
         <v>0</v>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="J24" s="26" t="n">
         <f aca="false">COUNTIF(H24,"flown")</f>
         <v>0</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="27" t="n">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="26" t="n">
         <f aca="false">COUNTIF(B25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="26" t="n">
         <f aca="false">COUNTIF(C25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="27" t="n">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="26" t="n">
         <f aca="false">COUNTIF(G25,"ran")</f>
         <v>0</v>
       </c>
-      <c r="J25" s="27" t="n">
+      <c r="J25" s="26" t="n">
         <f aca="false">COUNTIF(H25,"run")</f>
         <v>0</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="27" t="n">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26" t="n">
         <f aca="false">COUNTIF(B26,"met")</f>
         <v>0</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="26" t="n">
         <f aca="false">COUNTIF(C26,"met")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="O26" s="29"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="27" t="n">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="26" t="n">
         <f aca="false">COUNTIF(B27,"paid")</f>
         <v>0</v>
       </c>
-      <c r="E27" s="27" t="n">
+      <c r="E27" s="26" t="n">
         <f aca="false">COUNTIF(C27,"paid")</f>
         <v>0</v>
       </c>
@@ -6278,54 +6274,54 @@
         <f aca="false">SUM(I2:J26)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="27" t="n">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="26" t="n">
         <f aca="false">COUNTIF(B28,"put")</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="26" t="n">
         <f aca="false">COUNTIF(C28,"put")</f>
         <v>0</v>
       </c>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="27" t="n">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="26" t="n">
         <f aca="false">COUNTIF(B29,"read")</f>
         <v>0</v>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="26" t="n">
         <f aca="false">COUNTIF(C29,"read")</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="27" t="n">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="26" t="n">
         <f aca="false">COUNTIF(B30,"said")</f>
         <v>0</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="26" t="n">
         <f aca="false">COUNTIF(C30,"said")</f>
         <v>0</v>
       </c>
@@ -6335,93 +6331,93 @@
       <c r="H30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="27" t="n">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="26" t="n">
         <f aca="false">COUNTIF(B31,"saw")</f>
         <v>0</v>
       </c>
-      <c r="E31" s="27" t="n">
+      <c r="E31" s="26" t="n">
         <f aca="false">COUNTIF(C31,"seen")</f>
         <v>0</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM(E34+J27)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="27" t="n">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="26" t="n">
         <f aca="false">COUNTIF(B32,"sold")</f>
         <v>0</v>
       </c>
-      <c r="E32" s="27" t="n">
+      <c r="E32" s="26" t="n">
         <f aca="false">COUNTIF(C32,"sold")</f>
         <v>0</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">114-H31</f>
         <v>114</v>
       </c>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="27" t="n">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="26" t="n">
         <f aca="false">COUNTIF(B33,"told")</f>
         <v>0</v>
       </c>
-      <c r="E33" s="27" t="n">
+      <c r="E33" s="26" t="n">
         <f aca="false">COUNTIF(C33,"told")</f>
         <v>0</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="13" t="n">
-        <f aca="false">H31/393</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="29"/>
+      <c r="H33" s="12" t="n">
+        <f aca="false">H31/114</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="29"/>
-      <c r="E34" s="37" t="n">
+      <c r="D34" s="28"/>
+      <c r="E34" s="36" t="n">
         <f aca="false">SUM(D2:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="H34" s="14" t="str">
+      <c r="F34" s="28"/>
+      <c r="H34" s="13" t="str">
         <f aca="false">IF(H33&gt;0.8,"Zdał","Nie zdał")</f>
         <v>Nie zdał</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1416,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1459,10 +1459,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1565,10 +1561,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1648,29 +1640,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1719,7 @@
         <f aca="false">COUNTIF(C3,"i")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="9"/>
@@ -1741,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="9"/>
@@ -1749,7 +1741,7 @@
         <f aca="false">COUNTIF(L3,"marketing strategy")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="6" t="n">
@@ -1766,7 +1758,7 @@
         <f aca="false">COUNTIF(C4,"you")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9"/>
@@ -1780,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="9"/>
@@ -1788,7 +1780,7 @@
         <f aca="false">COUNTIF(L4,"marketing departament")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="6" t="n">
@@ -1805,7 +1797,7 @@
         <f aca="false">COUNTIF(C5,"he")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="9"/>
@@ -1819,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="9"/>
@@ -1827,10 +1819,10 @@
         <f aca="false">COUNTIF(L5,"marketing director")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <f aca="false">P3/393</f>
         <v>0</v>
       </c>
@@ -1844,7 +1836,7 @@
         <f aca="false">COUNTIF(C6,"she")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="9"/>
@@ -1858,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="9"/>
@@ -1866,7 +1858,7 @@
         <f aca="false">COUNTIF(L6,"marketing specialist")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="13" t="str">
         <f aca="false">IF(P5&gt;0.75,"Zdał","Nie zdał")</f>
         <v>Nie zdał</v>
       </c>
@@ -1880,7 +1872,7 @@
         <f aca="false">COUNTIF(C7,"it")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="9"/>
@@ -1894,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="0"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="9"/>
@@ -1912,7 +1904,7 @@
         <f aca="false">COUNTIF(C8,"we")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="9"/>
@@ -1926,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="9"/>
@@ -1944,7 +1936,7 @@
         <f aca="false">COUNTIF(C9,"you")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="9"/>
@@ -1958,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="9"/>
@@ -1976,7 +1968,7 @@
         <f aca="false">COUNTIF(C10,"they")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="9"/>
@@ -1990,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="0"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="9"/>
@@ -2004,12 +1996,12 @@
         <f aca="false">COUNTBLANK(C3:C10)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <f aca="false">SUM(D3:D10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="9"/>
@@ -2023,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="9"/>
@@ -2040,7 +2032,7 @@
       <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="9"/>
@@ -2054,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="9"/>
@@ -2064,7 +2056,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="9"/>
@@ -2072,7 +2064,7 @@
         <f aca="false">COUNTIF(C13,"me")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="9"/>
@@ -2086,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="0"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="9"/>
@@ -2096,7 +2088,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
@@ -2104,7 +2096,7 @@
         <f aca="false">COUNTIF(C14,"you")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="9"/>
@@ -2118,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="9"/>
@@ -2128,7 +2120,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="9"/>
@@ -2136,7 +2128,7 @@
         <f aca="false">COUNTIF(C15,"him")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="9"/>
@@ -2150,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="9"/>
@@ -2160,7 +2152,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="9"/>
@@ -2168,7 +2160,7 @@
         <f aca="false">COUNTIF(C16,"her")</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="9"/>
@@ -2182,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="0"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="9"/>
@@ -2192,7 +2184,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="9"/>
@@ -2200,7 +2192,7 @@
         <f aca="false">COUNTIF(C17,"it")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="9"/>
@@ -2214,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L17" s="9"/>
@@ -2224,7 +2216,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9"/>
@@ -2232,7 +2224,7 @@
         <f aca="false">COUNTIF(C18,"us")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="9"/>
@@ -2246,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="8" t="s">
         <v>58</v>
       </c>
       <c r="L18" s="9"/>
@@ -2256,7 +2248,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="9"/>
@@ -2264,7 +2256,7 @@
         <f aca="false">COUNTIF(C19,"you")</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="9"/>
@@ -2278,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="9"/>
@@ -2288,7 +2280,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="9"/>
@@ -2296,7 +2288,7 @@
         <f aca="false">COUNTIF(C20,"them")</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="9"/>
@@ -2310,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="9"/>
@@ -2324,12 +2316,12 @@
         <f aca="false">COUNTBLANK(C13:C20)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="14" t="n">
         <f aca="false">SUM(D13:D20)</f>
         <v>0</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="9"/>
@@ -2343,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="8" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="9"/>
@@ -2360,7 +2352,7 @@
       <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="9"/>
@@ -2374,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0"/>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="9"/>
@@ -2388,7 +2380,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="9"/>
@@ -2396,7 +2388,7 @@
         <f aca="false">COUNTIF(C23,"my")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="9"/>
@@ -2410,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L23" s="9"/>
@@ -2420,7 +2412,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="9"/>
@@ -2432,17 +2424,17 @@
         <f aca="false">COUNTBLANK(F3:F23)</f>
         <v>21</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <f aca="false">SUM(G3:G23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="14" t="n">
         <f aca="false">SUM(I3:I23)</f>
         <v>0</v>
       </c>
       <c r="J24" s="0"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="8" t="s">
         <v>75</v>
       </c>
       <c r="L24" s="9"/>
@@ -2452,7 +2444,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="9"/>
@@ -2470,7 +2462,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="L25" s="9"/>
@@ -2480,7 +2472,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="9"/>
@@ -2496,7 +2488,7 @@
         <f aca="false">COUNTIF(F26,"waiter")</f>
         <v>0</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="9"/>
@@ -2504,7 +2496,7 @@
         <f aca="false">COUNTIF(I26,"birthday")</f>
         <v>0</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="8" t="s">
         <v>83</v>
       </c>
       <c r="L26" s="9"/>
@@ -2514,7 +2506,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="9"/>
@@ -2530,7 +2522,7 @@
         <f aca="false">COUNTIF(F27,"journalist")</f>
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>86</v>
       </c>
       <c r="I27" s="9"/>
@@ -2538,7 +2530,7 @@
         <f aca="false">COUNTIF(I27,"sure")</f>
         <v>0</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L27" s="9"/>
@@ -2548,7 +2540,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="9"/>
@@ -2564,7 +2556,7 @@
         <f aca="false">COUNTIF(F28,"construction worker")</f>
         <v>0</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="9"/>
@@ -2572,7 +2564,7 @@
         <f aca="false">COUNTIF(I28,"opinion")</f>
         <v>0</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L28" s="9"/>
@@ -2582,7 +2574,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="9"/>
@@ -2598,7 +2590,7 @@
         <f aca="false">COUNTIF(F29,"baby sitter")</f>
         <v>0</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="9"/>
@@ -2606,7 +2598,7 @@
         <f aca="false">COUNTIF(I29,"mind")</f>
         <v>0</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L29" s="9"/>
@@ -2616,7 +2608,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="9"/>
@@ -2632,7 +2624,7 @@
         <f aca="false">COUNTIF(F30,"accountant")</f>
         <v>0</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="I30" s="9"/>
@@ -2640,7 +2632,7 @@
         <f aca="false">COUNTIF(I30,"to my mind")</f>
         <v>0</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="8" t="s">
         <v>99</v>
       </c>
       <c r="L30" s="9"/>
@@ -2654,7 +2646,7 @@
         <f aca="false">COUNTBLANK(C23:C30)</f>
         <v>8</v>
       </c>
-      <c r="C31" s="15" t="n">
+      <c r="C31" s="14" t="n">
         <f aca="false">SUM(D23:D30)</f>
         <v>0</v>
       </c>
@@ -2667,7 +2659,7 @@
         <f aca="false">COUNTIF(F31,"security guard")</f>
         <v>0</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="I31" s="9"/>
@@ -2675,7 +2667,7 @@
         <f aca="false">COUNTIF(I31,"in my opinion")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="8" t="s">
         <v>102</v>
       </c>
       <c r="L31" s="9"/>
@@ -2700,7 +2692,7 @@
         <f aca="false">COUNTIF(F32,"tailor")</f>
         <v>0</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I32" s="9"/>
@@ -2708,7 +2700,7 @@
         <f aca="false">COUNTIF(I32,"learn")</f>
         <v>0</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="8" t="s">
         <v>107</v>
       </c>
       <c r="L32" s="9"/>
@@ -2718,7 +2710,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="9"/>
@@ -2734,7 +2726,7 @@
         <f aca="false">COUNTIF(F33,"hairdresser")</f>
         <v>0</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="8" t="s">
         <v>109</v>
       </c>
       <c r="I33" s="9"/>
@@ -2742,7 +2734,7 @@
         <f aca="false">COUNTIF(I33,"spell")</f>
         <v>0</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="8" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="9"/>
@@ -2752,7 +2744,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="9"/>
@@ -2768,7 +2760,7 @@
         <f aca="false">COUNTIF(F34,"clerk")</f>
         <v>0</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="8" t="s">
         <v>112</v>
       </c>
       <c r="I34" s="9"/>
@@ -2776,7 +2768,7 @@
         <f aca="false">COUNTIF(I34,"full sentences")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="8" t="s">
         <v>113</v>
       </c>
       <c r="L34" s="9"/>
@@ -2786,7 +2778,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="9"/>
@@ -2802,7 +2794,7 @@
         <f aca="false">COUNTIF(F35,"baker")</f>
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="9"/>
@@ -2810,7 +2802,7 @@
         <f aca="false">COUNTIF(I35,"colleagues")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="8" t="s">
         <v>116</v>
       </c>
       <c r="L35" s="9"/>
@@ -2820,7 +2812,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="9"/>
@@ -2836,7 +2828,7 @@
         <f aca="false">COUNTIF(F36,"police officer")</f>
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I36" s="9"/>
@@ -2844,7 +2836,7 @@
         <f aca="false">COUNTIF(I36,"case")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="8" t="s">
         <v>119</v>
       </c>
       <c r="L36" s="9"/>
@@ -2854,7 +2846,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="9"/>
@@ -2870,7 +2862,7 @@
         <f aca="false">COUNTIF(F37,"lawyer")</f>
         <v>0</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="8" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9"/>
@@ -2878,7 +2870,7 @@
         <f aca="false">COUNTIF(I37,"notebook")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="8" t="s">
         <v>122</v>
       </c>
       <c r="L37" s="9"/>
@@ -2888,7 +2880,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="9"/>
@@ -2904,7 +2896,7 @@
         <f aca="false">COUNTIF(F38,"vet")</f>
         <v>0</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="9"/>
@@ -2912,7 +2904,7 @@
         <f aca="false">COUNTIF(I38,"table")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L38" s="9"/>
@@ -2922,7 +2914,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="9"/>
@@ -2938,7 +2930,7 @@
         <f aca="false">COUNTIF(F39,"chef")</f>
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I39" s="9"/>
@@ -2946,7 +2938,7 @@
         <f aca="false">COUNTIF(I39,"pencil")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L39" s="9"/>
@@ -2956,7 +2948,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="9"/>
@@ -2972,7 +2964,7 @@
         <f aca="false">COUNTIF(F40,"scientist")</f>
         <v>0</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="8" t="s">
         <v>130</v>
       </c>
       <c r="I40" s="9"/>
@@ -2980,7 +2972,7 @@
         <f aca="false">COUNTIF(I40,"pronunciation")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="8" t="s">
         <v>131</v>
       </c>
       <c r="L40" s="9"/>
@@ -2994,7 +2986,7 @@
         <f aca="false">COUNTBLANK(C33:C40)</f>
         <v>8</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C41" s="14" t="n">
         <f aca="false">SUM(D33:D40)</f>
         <v>0</v>
       </c>
@@ -3007,7 +2999,7 @@
         <f aca="false">COUNTIF(F41,"nurse")</f>
         <v>0</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I41" s="9"/>
@@ -3015,7 +3007,7 @@
         <f aca="false">COUNTIF(I41,"i can't pronounce it")</f>
         <v>0</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="8" t="s">
         <v>134</v>
       </c>
       <c r="L41" s="9"/>
@@ -3025,8 +3017,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="0"/>
       <c r="E42" s="8" t="s">
         <v>135</v>
@@ -3036,7 +3028,7 @@
         <f aca="false">COUNTIF(F42,"doctor")</f>
         <v>0</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="8" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="9"/>
@@ -3044,7 +3036,7 @@
         <f aca="false">COUNTIF(I42,"things")</f>
         <v>0</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="8" t="s">
         <v>137</v>
       </c>
       <c r="L42" s="9"/>
@@ -3054,7 +3046,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="9"/>
@@ -3070,7 +3062,7 @@
         <f aca="false">COUNTIF(F43,"office worker")</f>
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="8" t="s">
         <v>140</v>
       </c>
       <c r="I43" s="9"/>
@@ -3078,7 +3070,7 @@
         <f aca="false">COUNTIF(I43,"singular")</f>
         <v>0</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="8" t="s">
         <v>141</v>
       </c>
       <c r="L43" s="9"/>
@@ -3088,7 +3080,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="9"/>
@@ -3104,7 +3096,7 @@
         <f aca="false">COUNTIF(F44,"shop assistant")</f>
         <v>0</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="8" t="s">
         <v>144</v>
       </c>
       <c r="I44" s="9"/>
@@ -3112,7 +3104,7 @@
         <f aca="false">COUNTIF(I44,"plural")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="8" t="s">
         <v>145</v>
       </c>
       <c r="L44" s="9"/>
@@ -3122,7 +3114,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="9"/>
@@ -3138,7 +3130,7 @@
         <f aca="false">COUNTIF(F45,"taxi driver")</f>
         <v>0</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="8" t="s">
         <v>148</v>
       </c>
       <c r="I45" s="9"/>
@@ -3146,7 +3138,7 @@
         <f aca="false">COUNTIF(I45,"highway")</f>
         <v>0</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="8" t="s">
         <v>149</v>
       </c>
       <c r="L45" s="9"/>
@@ -3156,7 +3148,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="9"/>
@@ -3172,7 +3164,7 @@
         <f aca="false">COUNTIF(F46,"teacher")</f>
         <v>0</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="8" t="s">
         <v>152</v>
       </c>
       <c r="I46" s="9"/>
@@ -3180,7 +3172,7 @@
         <f aca="false">COUNTIF(I46,"fried")</f>
         <v>0</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="8" t="s">
         <v>153</v>
       </c>
       <c r="L46" s="9"/>
@@ -3190,7 +3182,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="9"/>
@@ -3206,7 +3198,7 @@
         <f aca="false">COUNTIF(F47,"mechanic")</f>
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="8" t="s">
         <v>156</v>
       </c>
       <c r="I47" s="9"/>
@@ -3214,7 +3206,7 @@
         <f aca="false">COUNTIF(I47,"fry")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="8" t="s">
         <v>157</v>
       </c>
       <c r="L47" s="9"/>
@@ -3224,7 +3216,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C48" s="9"/>
@@ -3240,7 +3232,7 @@
         <f aca="false">COUNTIF(F48,"postman")</f>
         <v>0</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="8" t="s">
         <v>160</v>
       </c>
       <c r="I48" s="9"/>
@@ -3248,7 +3240,7 @@
         <f aca="false">COUNTIF(I48,"stuffed")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="8" t="s">
         <v>161</v>
       </c>
       <c r="L48" s="9"/>
@@ -3258,7 +3250,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="9"/>
@@ -3270,12 +3262,12 @@
         <f aca="false">COUNTBLANK(F26:F48)</f>
         <v>23</v>
       </c>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="14" t="n">
         <f aca="false">SUM(G26:G48)</f>
         <v>0</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="8" t="s">
         <v>163</v>
       </c>
       <c r="I49" s="9"/>
@@ -3283,7 +3275,7 @@
         <f aca="false">COUNTIF(I49,"dill")</f>
         <v>0</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="L49" s="9"/>
@@ -3293,7 +3285,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="9"/>
@@ -3306,7 +3298,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="8" t="s">
         <v>166</v>
       </c>
       <c r="I50" s="9"/>
@@ -3318,7 +3310,7 @@
         <f aca="false">COUNTBLANK(L3:L49)</f>
         <v>47</v>
       </c>
-      <c r="L50" s="15" t="n">
+      <c r="L50" s="14" t="n">
         <f aca="false">SUM(M3:M49,N22)</f>
         <v>0</v>
       </c>
@@ -3329,12 +3321,12 @@
         <f aca="false">COUNTBLANK(C43:C50)</f>
         <v>8</v>
       </c>
-      <c r="C51" s="15" t="n">
+      <c r="C51" s="14" t="n">
         <f aca="false">SUM(D43:D50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="0"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F51" s="9"/>
@@ -3342,7 +3334,7 @@
         <f aca="false">COUNTIF(F51,"big country")</f>
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="8" t="s">
         <v>168</v>
       </c>
       <c r="I51" s="9"/>
@@ -3358,7 +3350,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="0"/>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="8" t="s">
         <v>170</v>
       </c>
       <c r="F52" s="9"/>
@@ -3366,7 +3358,7 @@
         <f aca="false">COUNTIF(F52,"area")</f>
         <v>0</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="8" t="s">
         <v>171</v>
       </c>
       <c r="I52" s="9"/>
@@ -3381,7 +3373,7 @@
       <c r="M52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C53" s="9"/>
@@ -3389,7 +3381,7 @@
         <f aca="false">COUNTIF(C53,"on monday")</f>
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>174</v>
       </c>
       <c r="F53" s="9"/>
@@ -3397,7 +3389,7 @@
         <f aca="false">COUNTIF(F53,"about")</f>
         <v>0</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="8" t="s">
         <v>175</v>
       </c>
       <c r="I53" s="9"/>
@@ -3410,7 +3402,7 @@
       <c r="M53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C54" s="9"/>
@@ -3418,7 +3410,7 @@
         <f aca="false">COUNTIF(C54,"on tuesday")</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="8" t="s">
         <v>177</v>
       </c>
       <c r="F54" s="9"/>
@@ -3426,7 +3418,7 @@
         <f aca="false">COUNTIF(F54,"square")</f>
         <v>0</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="8" t="s">
         <v>178</v>
       </c>
       <c r="I54" s="9"/>
@@ -3434,17 +3426,17 @@
         <f aca="false">COUNTIF(I54,"tall")</f>
         <v>0</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L54" s="17"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="10" t="n">
         <f aca="false">COUNTIF(L54,"dress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C55" s="9"/>
@@ -3452,7 +3444,7 @@
         <f aca="false">COUNTIF(C55,"on wednesday")</f>
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="8" t="s">
         <v>181</v>
       </c>
       <c r="F55" s="9"/>
@@ -3460,7 +3452,7 @@
         <f aca="false">COUNTIF(F55,"capital")</f>
         <v>0</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="8" t="s">
         <v>182</v>
       </c>
       <c r="I55" s="9"/>
@@ -3468,17 +3460,17 @@
         <f aca="false">COUNTIF(I55,"short")</f>
         <v>0</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="L55" s="17"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="10" t="n">
         <f aca="false">COUNTIF(L55,"blouse")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C56" s="9"/>
@@ -3486,7 +3478,7 @@
         <f aca="false">COUNTIF(C56,"on thursday")</f>
         <v>0</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="8" t="s">
         <v>185</v>
       </c>
       <c r="F56" s="9"/>
@@ -3494,7 +3486,7 @@
         <f aca="false">COUNTIF(F56,"city")</f>
         <v>0</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I56" s="9"/>
@@ -3502,17 +3494,17 @@
         <f aca="false">COUNTIF(I56,"how tall are you")</f>
         <v>0</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="10" t="n">
         <f aca="false">COUNTIF(L56,"shirt")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C57" s="9"/>
@@ -3520,7 +3512,7 @@
         <f aca="false">COUNTIF(C57,"on friday")</f>
         <v>0</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="8" t="s">
         <v>189</v>
       </c>
       <c r="F57" s="9"/>
@@ -3528,7 +3520,7 @@
         <f aca="false">COUNTIF(F57,"people")</f>
         <v>0</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="8" t="s">
         <v>190</v>
       </c>
       <c r="I57" s="9"/>
@@ -3536,17 +3528,17 @@
         <f aca="false">COUNTIF(I57,"arrive")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="10" t="n">
         <f aca="false">COUNTIF(L57,"skirt")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C58" s="9"/>
@@ -3554,7 +3546,7 @@
         <f aca="false">COUNTIF(C58,"on saturday")</f>
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="8" t="s">
         <v>193</v>
       </c>
       <c r="F58" s="9"/>
@@ -3562,7 +3554,7 @@
         <f aca="false">COUNTIF(F58,"currency")</f>
         <v>0</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="8" t="s">
         <v>194</v>
       </c>
       <c r="I58" s="9"/>
@@ -3570,17 +3562,17 @@
         <f aca="false">COUNTIF(I58,"carpet")</f>
         <v>0</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="10" t="n">
         <f aca="false">COUNTIF(L58,"vest")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C59" s="9"/>
@@ -3588,7 +3580,7 @@
         <f aca="false">COUNTIF(C59,"on sunday")</f>
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F59" s="9"/>
@@ -3596,7 +3588,7 @@
         <f aca="false">COUNTIF(F59,"friendly")</f>
         <v>0</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="8" t="s">
         <v>198</v>
       </c>
       <c r="I59" s="9"/>
@@ -3604,10 +3596,10 @@
         <f aca="false">COUNTIF(I59,"pillows")</f>
         <v>0</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="10" t="n">
         <f aca="false">COUNTIF(L59,"gloves")</f>
         <v>0</v>
@@ -3618,12 +3610,12 @@
         <f aca="false">COUNTBLANK(C53:C59)</f>
         <v>7</v>
       </c>
-      <c r="C60" s="15" t="n">
+      <c r="C60" s="14" t="n">
         <f aca="false">SUM(D53:D59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="0"/>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="8" t="s">
         <v>200</v>
       </c>
       <c r="F60" s="9"/>
@@ -3635,15 +3627,15 @@
         <f aca="false">COUNTBLANK(I26:I59)</f>
         <v>34</v>
       </c>
-      <c r="I60" s="15" t="n">
+      <c r="I60" s="14" t="n">
         <f aca="false">SUM(J26:J59)</f>
         <v>0</v>
       </c>
       <c r="J60" s="0"/>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="10" t="n">
         <f aca="false">COUNTIF(L60,"scarf")</f>
         <v>0</v>
@@ -3655,7 +3647,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="0"/>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F61" s="9"/>
@@ -3664,17 +3656,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="10"/>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="L61" s="17"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="10" t="n">
         <f aca="false">COUNTIF(L61,"sneakers")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="9"/>
@@ -3686,7 +3678,7 @@
         <f aca="false">COUNTBLANK(F51:F61)</f>
         <v>11</v>
       </c>
-      <c r="F62" s="15" t="n">
+      <c r="F62" s="14" t="n">
         <f aca="false">SUM(G51:G61)</f>
         <v>0</v>
       </c>
@@ -3696,17 +3688,17 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="L62" s="17"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="10" t="n">
         <f aca="false">COUNTIF(L62,"cardigan")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C63" s="9"/>
@@ -3722,17 +3714,17 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="10" t="n">
         <f aca="false">COUNTIF(L63,"pants")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="9"/>
@@ -3743,7 +3735,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="8" t="s">
         <v>212</v>
       </c>
       <c r="I64" s="9"/>
@@ -3751,17 +3743,17 @@
         <f aca="false">COUNTIF(I64,"it's")</f>
         <v>0</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L64" s="17"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="10" t="n">
         <f aca="false">COUNTIF(L64,"shoes")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="9"/>
@@ -3769,7 +3761,7 @@
         <f aca="false">COUNTIF(C65,"in april")</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>215</v>
       </c>
       <c r="F65" s="9"/>
@@ -3777,7 +3769,7 @@
         <f aca="false">COUNTIF(F65,"husband")</f>
         <v>0</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="8" t="s">
         <v>216</v>
       </c>
       <c r="I65" s="9"/>
@@ -3785,17 +3777,17 @@
         <f aca="false">COUNTIF(I65,"exactly")</f>
         <v>0</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L65" s="17"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="10" t="n">
         <f aca="false">COUNTIF(L65,"cap")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="9"/>
@@ -3803,7 +3795,7 @@
         <f aca="false">COUNTIF(C66,"in may")</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F66" s="9"/>
@@ -3811,7 +3803,7 @@
         <f aca="false">COUNTIF(F66,"father")</f>
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="8" t="s">
         <v>220</v>
       </c>
       <c r="I66" s="9"/>
@@ -3819,17 +3811,17 @@
         <f aca="false">COUNTIF(I66,"almost")</f>
         <v>0</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L66" s="17"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="10" t="n">
         <f aca="false">COUNTIF(L66,"hat")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="9"/>
@@ -3837,7 +3829,7 @@
         <f aca="false">COUNTIF(C67,"in june")</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F67" s="9"/>
@@ -3845,7 +3837,7 @@
         <f aca="false">COUNTIF(F67,"fiancee")</f>
         <v>0</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="8" t="s">
         <v>224</v>
       </c>
       <c r="I67" s="9"/>
@@ -3853,17 +3845,17 @@
         <f aca="false">COUNTIF(I67,"just gone")</f>
         <v>0</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="10" t="n">
         <f aca="false">COUNTIF(L67,"headgear")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C68" s="9"/>
@@ -3871,7 +3863,7 @@
         <f aca="false">COUNTIF(C68,"in july")</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F68" s="9"/>
@@ -3879,7 +3871,7 @@
         <f aca="false">COUNTIF(F68,"sister")</f>
         <v>0</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="8" t="s">
         <v>228</v>
       </c>
       <c r="I68" s="9"/>
@@ -3887,17 +3879,17 @@
         <f aca="false">COUNTIF(I68,"quarter")</f>
         <v>0</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="L68" s="17"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="10" t="n">
         <f aca="false">COUNTIF(L68,"jacket")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C69" s="9"/>
@@ -3905,7 +3897,7 @@
         <f aca="false">COUNTIF(C69,"in august")</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="8" t="s">
         <v>231</v>
       </c>
       <c r="F69" s="9"/>
@@ -3913,7 +3905,7 @@
         <f aca="false">COUNTIF(F69,"brother")</f>
         <v>0</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="8" t="s">
         <v>232</v>
       </c>
       <c r="I69" s="9"/>
@@ -3921,17 +3913,17 @@
         <f aca="false">COUNTIF(I69,"half")</f>
         <v>0</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L69" s="18"/>
+      <c r="L69" s="17"/>
       <c r="M69" s="10" t="n">
         <f aca="false">COUNTIF(L69,"stockings")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C70" s="9"/>
@@ -3939,7 +3931,7 @@
         <f aca="false">COUNTIF(C70,"in september")</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="8" t="s">
         <v>235</v>
       </c>
       <c r="F70" s="9"/>
@@ -3947,7 +3939,7 @@
         <f aca="false">COUNTIF(F70,"stepmother")</f>
         <v>0</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="8" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="9"/>
@@ -3955,17 +3947,17 @@
         <f aca="false">COUNTIF(I70,"o'clock")</f>
         <v>0</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="L70" s="18"/>
+      <c r="L70" s="17"/>
       <c r="M70" s="10" t="n">
         <f aca="false">COUNTIF(L70,"thongs")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="9"/>
@@ -3973,7 +3965,7 @@
         <f aca="false">COUNTIF(C71,"in october")</f>
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F71" s="9"/>
@@ -3981,7 +3973,7 @@
         <f aca="false">COUNTIF(F71,"aunt")</f>
         <v>0</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="8" t="s">
         <v>240</v>
       </c>
       <c r="I71" s="9"/>
@@ -3989,17 +3981,17 @@
         <f aca="false">COUNTIF(I71,"past")</f>
         <v>0</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="L71" s="17"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="10" t="n">
         <f aca="false">COUNTIF(L71,"coat")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C72" s="9"/>
@@ -4007,7 +3999,7 @@
         <f aca="false">COUNTIF(C72,"in november")</f>
         <v>0</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F72" s="9"/>
@@ -4015,7 +4007,7 @@
         <f aca="false">COUNTIF(F72,"naphew")</f>
         <v>0</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="8" t="s">
         <v>244</v>
       </c>
       <c r="I72" s="9"/>
@@ -4023,17 +4015,17 @@
         <f aca="false">COUNTIF(I72,"to")</f>
         <v>0</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L72" s="18"/>
+      <c r="L72" s="17"/>
       <c r="M72" s="10" t="n">
         <f aca="false">COUNTIF(L72,"panties")</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C73" s="9"/>
@@ -4041,7 +4033,7 @@
         <f aca="false">COUNTIF(C73,"in december")</f>
         <v>0</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="8" t="s">
         <v>247</v>
       </c>
       <c r="F73" s="9"/>
@@ -4049,7 +4041,7 @@
         <f aca="false">COUNTIF(F73,"cousin")</f>
         <v>0</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="9"/>
@@ -4057,10 +4049,10 @@
         <f aca="false">COUNTIF(I73,"when")</f>
         <v>0</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L73" s="17"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="10" t="n">
         <f aca="false">COUNTIF(L73,"socks")</f>
         <v>0</v>
@@ -4071,12 +4063,12 @@
         <f aca="false">COUNTBLANK(C62:C73)</f>
         <v>12</v>
       </c>
-      <c r="C74" s="15" t="n">
+      <c r="C74" s="14" t="n">
         <f aca="false">SUM(D62:D73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F74" s="9"/>
@@ -4084,7 +4076,7 @@
         <f aca="false">COUNTIF(F74,"foster parents")</f>
         <v>0</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="8" t="s">
         <v>251</v>
       </c>
       <c r="I74" s="9"/>
@@ -4096,15 +4088,15 @@
         <f aca="false">COUNTBLANK(L54:L73)</f>
         <v>20</v>
       </c>
-      <c r="L74" s="15" t="n">
+      <c r="L74" s="14" t="n">
         <f aca="false">SUM(M54:M73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="19"/>
+      <c r="B75" s="18"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="8" t="s">
         <v>252</v>
       </c>
       <c r="F75" s="9"/>
@@ -4112,7 +4104,7 @@
         <f aca="false">COUNTIF(F75,"twins")</f>
         <v>0</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="8" t="s">
         <v>253</v>
       </c>
       <c r="I75" s="9"/>
@@ -4127,7 +4119,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="8" t="s">
         <v>255</v>
       </c>
       <c r="F76" s="9"/>
@@ -4135,7 +4127,7 @@
         <f aca="false">COUNTIF(F76,"wife")</f>
         <v>0</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="8" t="s">
         <v>256</v>
       </c>
       <c r="I76" s="9"/>
@@ -4145,7 +4137,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="19" t="s">
         <v>257</v>
       </c>
       <c r="C77" s="9"/>
@@ -4153,7 +4145,7 @@
         <f aca="false">COUNTIF(C77,"spring")</f>
         <v>0</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="8" t="s">
         <v>258</v>
       </c>
       <c r="F77" s="9"/>
@@ -4161,7 +4153,7 @@
         <f aca="false">COUNTIF(F77,"mother")</f>
         <v>0</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="8" t="s">
         <v>259</v>
       </c>
       <c r="I77" s="9"/>
@@ -4171,7 +4163,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="19" t="s">
         <v>260</v>
       </c>
       <c r="C78" s="9"/>
@@ -4179,7 +4171,7 @@
         <f aca="false">COUNTIF(C78,"summer")</f>
         <v>0</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="8" t="s">
         <v>261</v>
       </c>
       <c r="F78" s="9"/>
@@ -4187,7 +4179,7 @@
         <f aca="false">COUNTIF(F78,"father in law")</f>
         <v>0</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="8" t="s">
         <v>262</v>
       </c>
       <c r="I78" s="9"/>
@@ -4197,7 +4189,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C79" s="9"/>
@@ -4205,7 +4197,7 @@
         <f aca="false">COUNTIF(C79,"autumn")</f>
         <v>0</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F79" s="9"/>
@@ -4213,7 +4205,7 @@
         <f aca="false">COUNTIF(F79,"brother in law")</f>
         <v>0</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="8" t="s">
         <v>265</v>
       </c>
       <c r="I79" s="9"/>
@@ -4223,7 +4215,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>266</v>
       </c>
       <c r="C80" s="9"/>
@@ -4235,12 +4227,12 @@
         <f aca="false">COUNTBLANK(F65:F79)</f>
         <v>15</v>
       </c>
-      <c r="F80" s="15" t="n">
+      <c r="F80" s="14" t="n">
         <f aca="false">SUM(G65:G79)</f>
         <v>0</v>
       </c>
       <c r="G80" s="0"/>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="8" t="s">
         <v>267</v>
       </c>
       <c r="I80" s="9"/>
@@ -4254,13 +4246,13 @@
         <f aca="false">COUNTBLANK(C77:C80)</f>
         <v>4</v>
       </c>
-      <c r="C81" s="15" t="n">
+      <c r="C81" s="14" t="n">
         <f aca="false">SUM(D77:D80)</f>
         <v>0</v>
       </c>
       <c r="D81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="8" t="s">
         <v>268</v>
       </c>
       <c r="I81" s="9"/>
@@ -4280,7 +4272,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="8" t="s">
         <v>271</v>
       </c>
       <c r="I82" s="9"/>
@@ -4290,7 +4282,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="20" t="n">
+      <c r="B83" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C83" s="9"/>
@@ -4298,7 +4290,7 @@
         <f aca="false">COUNTIF(C83,"one")</f>
         <v>0</v>
       </c>
-      <c r="E83" s="20" t="n">
+      <c r="E83" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="9"/>
@@ -4306,7 +4298,7 @@
         <f aca="false">COUNTIF(F83,"the first")</f>
         <v>0</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="8" t="s">
         <v>272</v>
       </c>
       <c r="I83" s="9"/>
@@ -4316,7 +4308,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="20" t="n">
+      <c r="B84" s="19" t="n">
         <v>2</v>
       </c>
       <c r="C84" s="9"/>
@@ -4324,7 +4316,7 @@
         <f aca="false">COUNTIF(C84,"two")</f>
         <v>0</v>
       </c>
-      <c r="E84" s="20" t="n">
+      <c r="E84" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="9"/>
@@ -4332,7 +4324,7 @@
         <f aca="false">COUNTIF(F84,"second")</f>
         <v>0</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="8" t="s">
         <v>273</v>
       </c>
       <c r="I84" s="9"/>
@@ -4342,7 +4334,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="20" t="n">
+      <c r="B85" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C85" s="9"/>
@@ -4350,7 +4342,7 @@
         <f aca="false">COUNTIF(C85,"three")</f>
         <v>0</v>
       </c>
-      <c r="E85" s="20" t="n">
+      <c r="E85" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F85" s="9"/>
@@ -4358,7 +4350,7 @@
         <f aca="false">COUNTIF(F85,"third")</f>
         <v>0</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="8" t="s">
         <v>274</v>
       </c>
       <c r="I85" s="9"/>
@@ -4368,7 +4360,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="20" t="n">
+      <c r="B86" s="19" t="n">
         <v>4</v>
       </c>
       <c r="C86" s="9"/>
@@ -4376,7 +4368,7 @@
         <f aca="false">COUNTIF(C86,"four")</f>
         <v>0</v>
       </c>
-      <c r="E86" s="20" t="n">
+      <c r="E86" s="19" t="n">
         <v>4</v>
       </c>
       <c r="F86" s="9"/>
@@ -4384,7 +4376,7 @@
         <f aca="false">COUNTIF(F86,"fourth")</f>
         <v>0</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="8" t="s">
         <v>275</v>
       </c>
       <c r="I86" s="9"/>
@@ -4394,7 +4386,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="20" t="n">
+      <c r="B87" s="19" t="n">
         <v>5</v>
       </c>
       <c r="C87" s="9"/>
@@ -4402,7 +4394,7 @@
         <f aca="false">COUNTIF(C87,"five")</f>
         <v>0</v>
       </c>
-      <c r="E87" s="20" t="n">
+      <c r="E87" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="9"/>
@@ -4410,7 +4402,7 @@
         <f aca="false">COUNTIF(F87,"fifth")</f>
         <v>0</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="8" t="s">
         <v>276</v>
       </c>
       <c r="I87" s="9"/>
@@ -4420,7 +4412,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="20" t="n">
+      <c r="B88" s="19" t="n">
         <v>6</v>
       </c>
       <c r="C88" s="9"/>
@@ -4428,7 +4420,7 @@
         <f aca="false">COUNTIF(C88,"six")</f>
         <v>0</v>
       </c>
-      <c r="E88" s="20" t="n">
+      <c r="E88" s="19" t="n">
         <v>6</v>
       </c>
       <c r="F88" s="9"/>
@@ -4436,7 +4428,7 @@
         <f aca="false">COUNTIF(F88,"sixth")</f>
         <v>0</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="8" t="s">
         <v>277</v>
       </c>
       <c r="I88" s="9"/>
@@ -4446,7 +4438,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="20" t="n">
+      <c r="B89" s="19" t="n">
         <v>7</v>
       </c>
       <c r="C89" s="9"/>
@@ -4454,7 +4446,7 @@
         <f aca="false">COUNTIF(C89,"seven")</f>
         <v>0</v>
       </c>
-      <c r="E89" s="20" t="n">
+      <c r="E89" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F89" s="9"/>
@@ -4462,7 +4454,7 @@
         <f aca="false">COUNTIF(F89,"seventh")</f>
         <v>0</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="8" t="s">
         <v>278</v>
       </c>
       <c r="I89" s="9"/>
@@ -4472,7 +4464,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="20" t="n">
+      <c r="B90" s="19" t="n">
         <v>8</v>
       </c>
       <c r="C90" s="9"/>
@@ -4480,7 +4472,7 @@
         <f aca="false">COUNTIF(C90,"eight")</f>
         <v>0</v>
       </c>
-      <c r="E90" s="20" t="n">
+      <c r="E90" s="19" t="n">
         <v>8</v>
       </c>
       <c r="F90" s="9"/>
@@ -4488,7 +4480,7 @@
         <f aca="false">COUNTIF(F90,"eighth")</f>
         <v>0</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="8" t="s">
         <v>279</v>
       </c>
       <c r="I90" s="9"/>
@@ -4498,7 +4490,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="20" t="n">
+      <c r="B91" s="19" t="n">
         <v>9</v>
       </c>
       <c r="C91" s="9"/>
@@ -4506,7 +4498,7 @@
         <f aca="false">COUNTIF(C91,"nine")</f>
         <v>0</v>
       </c>
-      <c r="E91" s="20" t="n">
+      <c r="E91" s="19" t="n">
         <v>9</v>
       </c>
       <c r="F91" s="9"/>
@@ -4514,7 +4506,7 @@
         <f aca="false">COUNTIF(F91,"ninth")</f>
         <v>0</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="8" t="s">
         <v>280</v>
       </c>
       <c r="I91" s="9"/>
@@ -4524,7 +4516,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="20" t="n">
+      <c r="B92" s="19" t="n">
         <v>10</v>
       </c>
       <c r="C92" s="9"/>
@@ -4532,7 +4524,7 @@
         <f aca="false">COUNTIF(C92,"ten")</f>
         <v>0</v>
       </c>
-      <c r="E92" s="20" t="n">
+      <c r="E92" s="19" t="n">
         <v>10</v>
       </c>
       <c r="F92" s="9"/>
@@ -4540,7 +4532,7 @@
         <f aca="false">COUNTIF(F92,"tenth")</f>
         <v>0</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="8" t="s">
         <v>281</v>
       </c>
       <c r="I92" s="9"/>
@@ -4550,7 +4542,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="20" t="n">
+      <c r="B93" s="19" t="n">
         <v>11</v>
       </c>
       <c r="C93" s="9"/>
@@ -4558,7 +4550,7 @@
         <f aca="false">COUNTIF(C93,"eleven")</f>
         <v>0</v>
       </c>
-      <c r="E93" s="20" t="n">
+      <c r="E93" s="19" t="n">
         <v>11</v>
       </c>
       <c r="F93" s="9"/>
@@ -4566,7 +4558,7 @@
         <f aca="false">COUNTIF(F93,"eleventh")</f>
         <v>0</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I93" s="9"/>
@@ -4576,7 +4568,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="20" t="n">
+      <c r="B94" s="19" t="n">
         <v>12</v>
       </c>
       <c r="C94" s="9"/>
@@ -4584,7 +4576,7 @@
         <f aca="false">COUNTIF(C94,"twelve")</f>
         <v>0</v>
       </c>
-      <c r="E94" s="20" t="n">
+      <c r="E94" s="19" t="n">
         <v>12</v>
       </c>
       <c r="F94" s="9"/>
@@ -4592,7 +4584,7 @@
         <f aca="false">COUNTIF(F94,"twelfth")</f>
         <v>0</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="8" t="s">
         <v>283</v>
       </c>
       <c r="I94" s="9"/>
@@ -4602,7 +4594,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="20" t="n">
+      <c r="B95" s="19" t="n">
         <v>13</v>
       </c>
       <c r="C95" s="9"/>
@@ -4610,7 +4602,7 @@
         <f aca="false">COUNTIF(C95,"thirteen")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="20" t="n">
+      <c r="E95" s="19" t="n">
         <v>13</v>
       </c>
       <c r="F95" s="9"/>
@@ -4622,14 +4614,14 @@
         <f aca="false">COUNTBLANK(I64:I94)</f>
         <v>31</v>
       </c>
-      <c r="I95" s="21" t="n">
+      <c r="I95" s="20" t="n">
         <f aca="false">SUM(J64:J94)</f>
         <v>0</v>
       </c>
       <c r="J95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="20" t="n">
+      <c r="B96" s="19" t="n">
         <v>14</v>
       </c>
       <c r="C96" s="9"/>
@@ -4637,7 +4629,7 @@
         <f aca="false">COUNTIF(C96,"fourteen")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="20" t="n">
+      <c r="E96" s="19" t="n">
         <v>14</v>
       </c>
       <c r="F96" s="9"/>
@@ -4648,7 +4640,7 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="20" t="n">
+      <c r="B97" s="19" t="n">
         <v>15</v>
       </c>
       <c r="C97" s="9"/>
@@ -4656,7 +4648,7 @@
         <f aca="false">COUNTIF(C97,"fifteen")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="20" t="n">
+      <c r="E97" s="19" t="n">
         <v>15</v>
       </c>
       <c r="F97" s="9"/>
@@ -4671,7 +4663,7 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="20" t="n">
+      <c r="B98" s="19" t="n">
         <v>16</v>
       </c>
       <c r="C98" s="9"/>
@@ -4679,7 +4671,7 @@
         <f aca="false">COUNTIF(C98,"sixteen")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="20" t="n">
+      <c r="E98" s="19" t="n">
         <v>16</v>
       </c>
       <c r="F98" s="9"/>
@@ -4692,7 +4684,7 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="20" t="n">
+      <c r="B99" s="19" t="n">
         <v>17</v>
       </c>
       <c r="C99" s="9"/>
@@ -4700,7 +4692,7 @@
         <f aca="false">COUNTIF(C99,"seventeen")</f>
         <v>0</v>
       </c>
-      <c r="E99" s="20" t="n">
+      <c r="E99" s="19" t="n">
         <v>17</v>
       </c>
       <c r="F99" s="9"/>
@@ -4708,7 +4700,7 @@
         <f aca="false">COUNTIF(F99,"seventeenth")</f>
         <v>0</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="8" t="s">
         <v>285</v>
       </c>
       <c r="I99" s="9"/>
@@ -4718,7 +4710,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="20" t="n">
+      <c r="B100" s="19" t="n">
         <v>18</v>
       </c>
       <c r="C100" s="9"/>
@@ -4726,7 +4718,7 @@
         <f aca="false">COUNTIF(C100,"eighteen")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="20" t="n">
+      <c r="E100" s="19" t="n">
         <v>18</v>
       </c>
       <c r="F100" s="9"/>
@@ -4734,7 +4726,7 @@
         <f aca="false">COUNTIF(F100,"eighteenth")</f>
         <v>0</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="8" t="s">
         <v>286</v>
       </c>
       <c r="I100" s="9"/>
@@ -4744,7 +4736,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="20" t="n">
+      <c r="B101" s="19" t="n">
         <v>19</v>
       </c>
       <c r="C101" s="9"/>
@@ -4752,7 +4744,7 @@
         <f aca="false">COUNTIF(C101,"nineteen")</f>
         <v>0</v>
       </c>
-      <c r="E101" s="20" t="n">
+      <c r="E101" s="19" t="n">
         <v>19</v>
       </c>
       <c r="F101" s="9"/>
@@ -4760,7 +4752,7 @@
         <f aca="false">COUNTIF(F101,"nineteenth")</f>
         <v>0</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="8" t="s">
         <v>287</v>
       </c>
       <c r="I101" s="9"/>
@@ -4770,7 +4762,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="20" t="n">
+      <c r="B102" s="19" t="n">
         <v>20</v>
       </c>
       <c r="C102" s="9"/>
@@ -4778,7 +4770,7 @@
         <f aca="false">COUNTIF(C102,"twenty")</f>
         <v>0</v>
       </c>
-      <c r="E102" s="20" t="n">
+      <c r="E102" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F102" s="9"/>
@@ -4786,7 +4778,7 @@
         <f aca="false">COUNTIF(F102,"twentieth")</f>
         <v>0</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="8" t="s">
         <v>288</v>
       </c>
       <c r="I102" s="9"/>
@@ -4796,7 +4788,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="20" t="n">
+      <c r="B103" s="19" t="n">
         <v>30</v>
       </c>
       <c r="C103" s="9"/>
@@ -4804,7 +4796,7 @@
         <f aca="false">COUNTIF(C103,"thirty")</f>
         <v>0</v>
       </c>
-      <c r="E103" s="20" t="n">
+      <c r="E103" s="19" t="n">
         <v>21</v>
       </c>
       <c r="F103" s="9"/>
@@ -4812,7 +4804,7 @@
         <f aca="false">COUNTIF(F103,"twenty first")</f>
         <v>0</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="8" t="s">
         <v>289</v>
       </c>
       <c r="I103" s="9"/>
@@ -4822,7 +4814,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="20" t="n">
+      <c r="B104" s="19" t="n">
         <v>40</v>
       </c>
       <c r="C104" s="9"/>
@@ -4830,7 +4822,7 @@
         <f aca="false">COUNTIF(C104,"forty")</f>
         <v>0</v>
       </c>
-      <c r="E104" s="20" t="n">
+      <c r="E104" s="19" t="n">
         <v>22</v>
       </c>
       <c r="F104" s="9"/>
@@ -4838,7 +4830,7 @@
         <f aca="false">COUNTIF(F104,"twenty second")</f>
         <v>0</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" s="8" t="s">
         <v>290</v>
       </c>
       <c r="I104" s="9"/>
@@ -4848,7 +4840,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="20" t="n">
+      <c r="B105" s="19" t="n">
         <v>50</v>
       </c>
       <c r="C105" s="9"/>
@@ -4856,7 +4848,7 @@
         <f aca="false">COUNTIF(C105,"fifty")</f>
         <v>0</v>
       </c>
-      <c r="E105" s="20" t="n">
+      <c r="E105" s="19" t="n">
         <v>23</v>
       </c>
       <c r="F105" s="9"/>
@@ -4864,7 +4856,7 @@
         <f aca="false">COUNTIF(F105,"twenty third")</f>
         <v>0</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="8" t="s">
         <v>244</v>
       </c>
       <c r="I105" s="9"/>
@@ -4874,7 +4866,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="20" t="n">
+      <c r="B106" s="19" t="n">
         <v>60</v>
       </c>
       <c r="C106" s="9"/>
@@ -4882,7 +4874,7 @@
         <f aca="false">COUNTIF(C106,"sixty")</f>
         <v>0</v>
       </c>
-      <c r="E106" s="20" t="n">
+      <c r="E106" s="19" t="n">
         <v>30</v>
       </c>
       <c r="F106" s="9"/>
@@ -4890,7 +4882,7 @@
         <f aca="false">COUNTIF(F106,"thirtieth")</f>
         <v>0</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" s="8" t="s">
         <v>291</v>
       </c>
       <c r="I106" s="9"/>
@@ -4900,7 +4892,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="20" t="n">
+      <c r="B107" s="19" t="n">
         <v>70</v>
       </c>
       <c r="C107" s="9"/>
@@ -4908,7 +4900,7 @@
         <f aca="false">COUNTIF(C107,"seventy")</f>
         <v>0</v>
       </c>
-      <c r="E107" s="20" t="n">
+      <c r="E107" s="19" t="n">
         <v>31</v>
       </c>
       <c r="F107" s="9"/>
@@ -4916,7 +4908,7 @@
         <f aca="false">COUNTIF(F107,"thirty first")</f>
         <v>0</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H107" s="8" t="s">
         <v>292</v>
       </c>
       <c r="I107" s="9"/>
@@ -4926,7 +4918,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="20" t="n">
+      <c r="B108" s="19" t="n">
         <v>80</v>
       </c>
       <c r="C108" s="9"/>
@@ -4934,7 +4926,7 @@
         <f aca="false">COUNTIF(C108,"eighty")</f>
         <v>0</v>
       </c>
-      <c r="E108" s="20" t="n">
+      <c r="E108" s="19" t="n">
         <v>40</v>
       </c>
       <c r="F108" s="9"/>
@@ -4942,7 +4934,7 @@
         <f aca="false">COUNTIF(F108,"fortieth")</f>
         <v>0</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H108" s="8" t="s">
         <v>293</v>
       </c>
       <c r="I108" s="9"/>
@@ -4952,7 +4944,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="20" t="n">
+      <c r="B109" s="19" t="n">
         <v>90</v>
       </c>
       <c r="C109" s="9"/>
@@ -4960,7 +4952,7 @@
         <f aca="false">COUNTIF(C109,"ninety")</f>
         <v>0</v>
       </c>
-      <c r="E109" s="20" t="n">
+      <c r="E109" s="19" t="n">
         <v>50</v>
       </c>
       <c r="F109" s="9"/>
@@ -4968,7 +4960,7 @@
         <f aca="false">COUNTIF(F109,"fiftieth")</f>
         <v>0</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" s="8" t="s">
         <v>294</v>
       </c>
       <c r="I109" s="9"/>
@@ -4978,7 +4970,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="20" t="n">
+      <c r="B110" s="19" t="n">
         <v>100</v>
       </c>
       <c r="C110" s="9"/>
@@ -4986,7 +4978,7 @@
         <f aca="false">COUNTIF(C110,"one hundred")</f>
         <v>0</v>
       </c>
-      <c r="E110" s="20" t="n">
+      <c r="E110" s="19" t="n">
         <v>60</v>
       </c>
       <c r="F110" s="9"/>
@@ -4998,14 +4990,14 @@
         <f aca="false">COUNTBLANK(I99:I109)</f>
         <v>11</v>
       </c>
-      <c r="I110" s="15" t="n">
+      <c r="I110" s="14" t="n">
         <f aca="false">SUM(J99:J109)</f>
         <v>0</v>
       </c>
       <c r="J110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="20" t="n">
+      <c r="B111" s="19" t="n">
         <v>109</v>
       </c>
       <c r="C111" s="9"/>
@@ -5013,7 +5005,7 @@
         <f aca="false">COUNTIF(C111,"one hundred and nine")</f>
         <v>0</v>
       </c>
-      <c r="E111" s="20" t="n">
+      <c r="E111" s="19" t="n">
         <v>70</v>
       </c>
       <c r="F111" s="9"/>
@@ -5024,7 +5016,7 @@
       <c r="J111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="20" t="n">
+      <c r="B112" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C112" s="9"/>
@@ -5032,7 +5024,7 @@
         <f aca="false">COUNTIF(C112,"two hundred")</f>
         <v>0</v>
       </c>
-      <c r="E112" s="20" t="n">
+      <c r="E112" s="19" t="n">
         <v>80</v>
       </c>
       <c r="F112" s="9"/>
@@ -5049,7 +5041,7 @@
       <c r="J112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="20" t="n">
+      <c r="B113" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="C113" s="9"/>
@@ -5057,7 +5049,7 @@
         <f aca="false">COUNTIF(C113,"one thousand")</f>
         <v>0</v>
       </c>
-      <c r="E113" s="20" t="n">
+      <c r="E113" s="19" t="n">
         <v>90</v>
       </c>
       <c r="F113" s="9"/>
@@ -5070,7 +5062,7 @@
       <c r="J113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="22" t="n">
+      <c r="B114" s="21" t="n">
         <v>100000</v>
       </c>
       <c r="C114" s="9"/>
@@ -5078,7 +5070,7 @@
         <f aca="false">COUNTIF(C114,"one hundred thousand")</f>
         <v>0</v>
       </c>
-      <c r="E114" s="20" t="n">
+      <c r="E114" s="19" t="n">
         <v>100</v>
       </c>
       <c r="F114" s="9"/>
@@ -5086,7 +5078,7 @@
         <f aca="false">COUNTIF(F114,"one hundredth")</f>
         <v>0</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="8" t="s">
         <v>297</v>
       </c>
       <c r="I114" s="9"/>
@@ -5100,12 +5092,12 @@
         <f aca="false">COUNTBLANK(C83:C114)</f>
         <v>32</v>
       </c>
-      <c r="C115" s="15" t="n">
+      <c r="C115" s="14" t="n">
         <f aca="false">SUM(D83:D114)</f>
         <v>0</v>
       </c>
       <c r="D115" s="10"/>
-      <c r="E115" s="20" t="n">
+      <c r="E115" s="19" t="n">
         <v>200</v>
       </c>
       <c r="F115" s="9"/>
@@ -5113,7 +5105,7 @@
         <f aca="false">COUNTIF(F115,"two hundredth")</f>
         <v>0</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="8" t="s">
         <v>298</v>
       </c>
       <c r="I115" s="9"/>
@@ -5128,7 +5120,7 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="20" t="n">
+      <c r="E116" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="F116" s="9"/>
@@ -5136,7 +5128,7 @@
         <f aca="false">COUNTIF(F116,"one thousandth")</f>
         <v>0</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="8" t="s">
         <v>300</v>
       </c>
       <c r="I116" s="9"/>
@@ -5149,7 +5141,7 @@
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="22" t="n">
+      <c r="E117" s="21" t="n">
         <v>100000</v>
       </c>
       <c r="F117" s="9"/>
@@ -5157,7 +5149,7 @@
         <f aca="false">COUNTIF(F117,"one hundred thousandth")</f>
         <v>0</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="8" t="s">
         <v>301</v>
       </c>
       <c r="I117" s="9"/>
@@ -5176,11 +5168,11 @@
         <f aca="false">COUNTBLANK(F83:F117)</f>
         <v>35</v>
       </c>
-      <c r="F118" s="15" t="n">
+      <c r="F118" s="14" t="n">
         <f aca="false">SUM(G83:G117)</f>
         <v>0</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="8" t="s">
         <v>303</v>
       </c>
       <c r="I118" s="9"/>
@@ -5190,7 +5182,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C119" s="9"/>
@@ -5198,7 +5190,7 @@
         <f aca="false">COUNTIF(C119,"child")</f>
         <v>0</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="8" t="s">
         <v>305</v>
       </c>
       <c r="I119" s="9"/>
@@ -5208,7 +5200,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C120" s="9"/>
@@ -5216,7 +5208,7 @@
         <f aca="false">COUNTIF(C120,"tooth")</f>
         <v>0</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="8" t="s">
         <v>307</v>
       </c>
       <c r="I120" s="9"/>
@@ -5226,7 +5218,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C121" s="9"/>
@@ -5234,7 +5226,7 @@
         <f aca="false">COUNTIF(C121,"man")</f>
         <v>0</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="8" t="s">
         <v>307</v>
       </c>
       <c r="I121" s="9"/>
@@ -5244,7 +5236,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C122" s="9"/>
@@ -5252,7 +5244,7 @@
         <f aca="false">COUNTIF(C122,"woman")</f>
         <v>0</v>
       </c>
-      <c r="H122" s="11" t="s">
+      <c r="H122" s="8" t="s">
         <v>310</v>
       </c>
       <c r="I122" s="9"/>
@@ -5262,7 +5254,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C123" s="9"/>
@@ -5270,7 +5262,7 @@
         <f aca="false">COUNTIF(C123,"foot")</f>
         <v>0</v>
       </c>
-      <c r="H123" s="11" t="s">
+      <c r="H123" s="8" t="s">
         <v>312</v>
       </c>
       <c r="I123" s="9"/>
@@ -5280,7 +5272,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C124" s="9"/>
@@ -5288,7 +5280,7 @@
         <f aca="false">COUNTIF(C124,"person")</f>
         <v>0</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="8" t="s">
         <v>314</v>
       </c>
       <c r="I124" s="9"/>
@@ -5302,12 +5294,12 @@
         <f aca="false">COUNTBLANK(C119:C124)</f>
         <v>6</v>
       </c>
-      <c r="C125" s="23" t="n">
+      <c r="C125" s="22" t="n">
         <f aca="false">SUM(D119:D124)</f>
         <v>0</v>
       </c>
       <c r="D125" s="10"/>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="8" t="s">
         <v>315</v>
       </c>
       <c r="I125" s="9"/>
@@ -5322,7 +5314,7 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="10"/>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="8" t="s">
         <v>317</v>
       </c>
       <c r="I126" s="9"/>
@@ -5332,7 +5324,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="8" t="s">
         <v>318</v>
       </c>
       <c r="C127" s="9"/>
@@ -5340,7 +5332,7 @@
         <f aca="false">COUNTIF(C127,"children")</f>
         <v>0</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="8" t="s">
         <v>319</v>
       </c>
       <c r="I127" s="9"/>
@@ -5350,7 +5342,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C128" s="9"/>
@@ -5358,7 +5350,7 @@
         <f aca="false">COUNTIF(C128,"teeth")</f>
         <v>0</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="8" t="s">
         <v>321</v>
       </c>
       <c r="I128" s="9"/>
@@ -5368,7 +5360,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C129" s="9"/>
@@ -5376,7 +5368,7 @@
         <f aca="false">COUNTIF(C129,"men")</f>
         <v>0</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="8" t="s">
         <v>323</v>
       </c>
       <c r="I129" s="9"/>
@@ -5386,7 +5378,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C130" s="9"/>
@@ -5394,7 +5386,7 @@
         <f aca="false">COUNTIF(C130,"women")</f>
         <v>0</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H130" s="8" t="s">
         <v>325</v>
       </c>
       <c r="I130" s="9"/>
@@ -5404,7 +5396,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C131" s="9"/>
@@ -5416,13 +5408,13 @@
         <f aca="false">COUNTBLANK(I114:I130)</f>
         <v>17</v>
       </c>
-      <c r="I131" s="15" t="n">
+      <c r="I131" s="14" t="n">
         <f aca="false">SUM(J114:J130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C132" s="9"/>
@@ -5436,7 +5428,7 @@
         <f aca="false">COUNTBLANK(C127:C132)</f>
         <v>6</v>
       </c>
-      <c r="C133" s="15" t="n">
+      <c r="C133" s="14" t="n">
         <f aca="false">SUM(D127:D132)</f>
         <v>0</v>
       </c>
@@ -5469,7 +5461,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5484,793 +5476,795 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.12145748987854"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="5.50607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.73279352226721"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="n">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="n">
         <f aca="false">COUNTIF(B2,"was/were")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="26" t="n">
         <f aca="false">COUNTIF(C2,"been")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27" t="n">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26" t="n">
         <f aca="false">COUNTIF(G2,"sang")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">COUNTIF(H2,"sung")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="27" t="n">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <f aca="false">COUNTIF(C3,"become")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="27" t="n">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="26" t="n">
         <f aca="false">COUNTIF(G3,"sat")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="27" t="n">
+      <c r="J3" s="26" t="n">
         <f aca="false">COUNTIF(H3,"sat")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="O3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="27" t="n">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26" t="n">
         <f aca="false">COUNTIF(B4,"broke")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <f aca="false">COUNTIF(C4,"broken")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="27" t="n">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="26" t="n">
         <f aca="false">COUNTIF(G4,"slept")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="26" t="n">
         <f aca="false">COUNTIF(H4,"slept")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="O4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="27" t="n">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26" t="n">
         <f aca="false">COUNTIF(B5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="26" t="n">
         <f aca="false">COUNTIF(C5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="27" t="n">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="26" t="n">
         <f aca="false">COUNTIF(G5,"spoke")</f>
         <v>0</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="26" t="n">
         <f aca="false">COUNTIF(H5,"spoken")</f>
         <v>0</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="O5" s="29"/>
+      <c r="K5" s="27"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="27" t="n">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26" t="n">
         <f aca="false">COUNTIF(B6,"bought")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="26" t="n">
         <f aca="false">COUNTIF(C6,"bought")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="27" t="n">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="26" t="n">
         <f aca="false">COUNTIF(G6,"spent")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27" t="n">
+      <c r="J6" s="26" t="n">
         <f aca="false">COUNTIF(H6,"spent")</f>
         <v>0</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="O6" s="29"/>
+      <c r="K6" s="27"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="27" t="n">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="26" t="n">
         <f aca="false">COUNTIF(B7,"came")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="26" t="n">
         <f aca="false">COUNTIF(C7,"come")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="27" t="n">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="26" t="n">
         <f aca="false">COUNTIF(G7,"stood")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="26" t="n">
         <f aca="false">COUNTIF(H7,"stood")</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="O7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="27" t="n">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="26" t="n">
         <f aca="false">COUNTIF(B8,"did")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="26" t="n">
         <f aca="false">COUNTIF(C8,"done")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="27" t="n">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="26" t="n">
         <f aca="false">COUNTIF(G8,"stole")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="26" t="n">
         <f aca="false">COUNTIF(H8,"stolen")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="K8" s="27"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="27" t="n">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="26" t="n">
         <f aca="false">COUNTIF(B9,"drank")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="26" t="n">
         <f aca="false">COUNTIF(C9,"drunk")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="27" t="n">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="26" t="n">
         <f aca="false">COUNTIF(G9,"swam")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27" t="n">
+      <c r="J9" s="26" t="n">
         <f aca="false">COUNTIF(H9,"swum")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="O9" s="29"/>
+      <c r="K9" s="27"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="27" t="n">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="26" t="n">
         <f aca="false">COUNTIF(C10,"driven")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="27" t="n">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="26" t="n">
         <f aca="false">COUNTIF(G10,"took")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="27" t="n">
+      <c r="J10" s="26" t="n">
         <f aca="false">COUNTIF(H10,"taken")</f>
         <v>0</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="K10" s="27"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="27" t="n">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="26" t="n">
         <f aca="false">COUNTIF(B11,"ate")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="26" t="n">
         <f aca="false">COUNTIF(C11,"eaten")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="27" t="n">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="26" t="n">
         <f aca="false">COUNTIF(G11,"taught")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="26" t="n">
         <f aca="false">COUNTIF(H11,"taught")</f>
         <v>0</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="27" t="n">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="26" t="n">
         <f aca="false">COUNTIF(C12,"fallen")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="27" t="n">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="26" t="n">
         <f aca="false">COUNTIF(G12,"thought")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="J12" s="26" t="n">
         <f aca="false">COUNTIF(H12,"thought")</f>
         <v>0</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="27" t="n">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="26" t="n">
         <f aca="false">COUNTIF(B13,"forgot")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="26" t="n">
         <f aca="false">COUNTIF(C13,"forgotten")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="27" t="n">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="26" t="n">
         <f aca="false">COUNTIF(G13,"understood")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="26" t="n">
         <f aca="false">COUNTIF(H13,"sung")</f>
         <v>0</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="27" t="n">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="26" t="n">
         <f aca="false">COUNTIF(C14,"forgiven")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27" t="n">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="26" t="n">
         <f aca="false">COUNTIF(G14,"woke")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="27" t="n">
+      <c r="J14" s="26" t="n">
         <f aca="false">COUNTIF(H14,"woken")</f>
         <v>0</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="27" t="n">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="26" t="n">
         <f aca="false">COUNTIF(B15,"got")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="26" t="n">
         <f aca="false">COUNTIF(C15,"got")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="27" t="n">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="26" t="n">
         <f aca="false">COUNTIF(G15,"won")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="27" t="n">
+      <c r="J15" s="26" t="n">
         <f aca="false">COUNTIF(H15,"won")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="27" t="n">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="26" t="n">
         <f aca="false">COUNTIF(C16,"given")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="27" t="n">
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="26" t="n">
         <f aca="false">COUNTIF(G16,"wrote")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="27" t="n">
+      <c r="J16" s="26" t="n">
         <f aca="false">COUNTIF(H16,"written")</f>
         <v>0</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="27" t="n">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="26" t="n">
         <f aca="false">COUNTIF(B17,"went")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="26" t="n">
         <f aca="false">COUNTIF(C17,"gone")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="27" t="n">
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="26" t="n">
         <f aca="false">COUNTIF(G17,"chose")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="27" t="n">
+      <c r="J17" s="26" t="n">
         <f aca="false">COUNTIF(H17,"chosen")</f>
         <v>0</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27" t="n">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="26" t="n">
         <f aca="false">COUNTIF(B18,"had")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="26" t="n">
         <f aca="false">COUNTIF(C18,"had")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="27" t="n">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26" t="n">
         <f aca="false">COUNTIF(G18,"cut")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27" t="n">
+      <c r="J18" s="26" t="n">
         <f aca="false">COUNTIF(H18,"cut")</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="27" t="n">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26" t="n">
         <f aca="false">COUNTIF(B19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="26" t="n">
         <f aca="false">COUNTIF(C19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="27" t="n">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="26" t="n">
         <f aca="false">COUNTIF(G19,"found")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="27" t="n">
+      <c r="J19" s="26" t="n">
         <f aca="false">COUNTIF(H19,"found")</f>
         <v>0</v>
       </c>
-      <c r="O19" s="29"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="27" t="n">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="26" t="n">
         <f aca="false">COUNTIF(B20,"knew")</f>
         <v>0</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">COUNTIF(C20,"known")</f>
         <v>0</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="27" t="n">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="26" t="n">
         <f aca="false">COUNTIF(G20,"began")</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="26" t="n">
         <f aca="false">COUNTIF(H20,"begun")</f>
         <v>0</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="27" t="n">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="26" t="n">
         <f aca="false">COUNTIF(B21,"left")</f>
         <v>0</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="26" t="n">
         <f aca="false">COUNTIF(C21,"left")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="27" t="n">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="26" t="n">
         <f aca="false">COUNTIF(G21,"built")</f>
         <v>0</v>
       </c>
-      <c r="J21" s="27" t="n">
+      <c r="J21" s="26" t="n">
         <f aca="false">COUNTIF(H21,"built")</f>
         <v>0</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="27" t="n">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26" t="n">
         <f aca="false">COUNTIF(B22,"let")</f>
         <v>0</v>
       </c>
-      <c r="E22" s="27" t="n">
+      <c r="E22" s="26" t="n">
         <f aca="false">COUNTIF(C22,"let")</f>
         <v>0</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="27" t="n">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="26" t="n">
         <f aca="false">COUNTIF(G22,"rode")</f>
         <v>0</v>
       </c>
-      <c r="J22" s="27" t="n">
+      <c r="J22" s="26" t="n">
         <f aca="false">COUNTIF(H22,"ridden")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="29"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="27" t="n">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="26" t="n">
         <f aca="false">COUNTIF(B23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="27" t="n">
+      <c r="E23" s="26" t="n">
         <f aca="false">COUNTIF(C23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="27" t="n">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="26" t="n">
         <f aca="false">COUNTIF(G23,"sent")</f>
         <v>0</v>
       </c>
-      <c r="J23" s="27" t="n">
+      <c r="J23" s="26" t="n">
         <f aca="false">COUNTIF(H23,"sent")</f>
         <v>0</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="27" t="n">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="26" t="n">
         <f aca="false">COUNTIF(B24,"made")</f>
         <v>0</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="26" t="n">
         <f aca="false">COUNTIF(C24,"made")</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="27" t="n">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="26" t="n">
         <f aca="false">COUNTIF(G24,"flew")</f>
         <v>0</v>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="J24" s="26" t="n">
         <f aca="false">COUNTIF(H24,"flown")</f>
         <v>0</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="27" t="n">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="26" t="n">
         <f aca="false">COUNTIF(B25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="26" t="n">
         <f aca="false">COUNTIF(C25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="27" t="n">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="26" t="n">
         <f aca="false">COUNTIF(G25,"ran")</f>
         <v>0</v>
       </c>
-      <c r="J25" s="27" t="n">
+      <c r="J25" s="26" t="n">
         <f aca="false">COUNTIF(H25,"run")</f>
         <v>0</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="27" t="n">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26" t="n">
         <f aca="false">COUNTIF(B26,"met")</f>
         <v>0</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="26" t="n">
         <f aca="false">COUNTIF(C26,"met")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="O26" s="29"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="27" t="n">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="26" t="n">
         <f aca="false">COUNTIF(B27,"paid")</f>
         <v>0</v>
       </c>
-      <c r="E27" s="27" t="n">
+      <c r="E27" s="26" t="n">
         <f aca="false">COUNTIF(C27,"paid")</f>
         <v>0</v>
       </c>
@@ -6278,54 +6272,54 @@
         <f aca="false">SUM(I2:J26)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="27" t="n">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="26" t="n">
         <f aca="false">COUNTIF(B28,"put")</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="26" t="n">
         <f aca="false">COUNTIF(C28,"put")</f>
         <v>0</v>
       </c>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="27" t="n">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="26" t="n">
         <f aca="false">COUNTIF(B29,"read")</f>
         <v>0</v>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="26" t="n">
         <f aca="false">COUNTIF(C29,"read")</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="27" t="n">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="26" t="n">
         <f aca="false">COUNTIF(B30,"said")</f>
         <v>0</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="26" t="n">
         <f aca="false">COUNTIF(C30,"said")</f>
         <v>0</v>
       </c>
@@ -6335,98 +6329,98 @@
       <c r="H30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="27" t="n">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="26" t="n">
         <f aca="false">COUNTIF(B31,"saw")</f>
         <v>0</v>
       </c>
-      <c r="E31" s="27" t="n">
+      <c r="E31" s="26" t="n">
         <f aca="false">COUNTIF(C31,"seen")</f>
         <v>0</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM(E34+J27)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="27" t="n">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="26" t="n">
         <f aca="false">COUNTIF(B32,"sold")</f>
         <v>0</v>
       </c>
-      <c r="E32" s="27" t="n">
+      <c r="E32" s="26" t="n">
         <f aca="false">COUNTIF(C32,"sold")</f>
         <v>0</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">114-H31</f>
         <v>114</v>
       </c>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="27" t="n">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="26" t="n">
         <f aca="false">COUNTIF(B33,"told")</f>
         <v>0</v>
       </c>
-      <c r="E33" s="27" t="n">
+      <c r="E33" s="26" t="n">
         <f aca="false">COUNTIF(C33,"told")</f>
         <v>0</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="13" t="n">
+      <c r="H33" s="12" t="n">
         <f aca="false">H31/393</f>
         <v>0</v>
       </c>
-      <c r="O33" s="29"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="29"/>
-      <c r="E34" s="37" t="n">
+      <c r="D34" s="28"/>
+      <c r="E34" s="26" t="n">
         <f aca="false">SUM(D2:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="H34" s="14" t="str">
+      <c r="F34" s="28"/>
+      <c r="H34" s="13" t="str">
         <f aca="false">IF(H33&gt;0.8,"Zdał","Nie zdał")</f>
         <v>Nie zdał</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="392">
   <si>
     <t xml:space="preserve">wpisanych ogółem</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">verb</t>
   </si>
   <si>
-    <t xml:space="preserve">400 słówek</t>
+    <t xml:space="preserve">400 słówek +</t>
   </si>
   <si>
     <t xml:space="preserve">Ja</t>
@@ -1019,10 +1019,19 @@
     <t xml:space="preserve">be</t>
   </si>
   <si>
+    <t xml:space="preserve">was/were</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been</t>
+  </si>
+  <si>
     <t xml:space="preserve">sing</t>
   </si>
   <si>
     <t xml:space="preserve">become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">became</t>
   </si>
   <si>
     <t xml:space="preserve">sit</t>
@@ -1640,8 +1649,8 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5477,7 +5486,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5524,18 +5533,22 @@
       <c r="A2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>333</v>
+      </c>
       <c r="D2" s="26" t="n">
         <f aca="false">COUNTIF(B2,"was/were")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="26" t="n">
         <f aca="false">COUNTIF(C2,"been")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -5552,20 +5565,24 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+        <v>335</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>335</v>
+      </c>
       <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="26" t="n">
         <f aca="false">COUNTIF(C3,"become")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -5582,7 +5599,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -5595,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -5612,7 +5629,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -5625,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -5642,7 +5659,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -5655,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -5672,7 +5689,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -5685,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -5702,7 +5719,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5715,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -5732,7 +5749,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -5745,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -5762,7 +5779,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -5775,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -5792,7 +5809,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -5805,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -5822,7 +5839,7 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5835,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -5852,7 +5869,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -5865,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -5882,7 +5899,7 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -5895,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -5912,7 +5929,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -5925,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5942,7 +5959,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5955,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -5972,7 +5989,7 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -5985,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -6002,7 +6019,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -6015,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -6032,7 +6049,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -6045,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -6061,7 +6078,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -6074,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -6090,7 +6107,7 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -6103,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
@@ -6119,7 +6136,7 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -6132,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -6148,7 +6165,7 @@
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -6161,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -6177,7 +6194,7 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -6190,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
@@ -6206,7 +6223,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -6219,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -6235,7 +6252,7 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -6256,7 +6273,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -6276,7 +6293,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -6292,7 +6309,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -6311,7 +6328,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -6324,16 +6341,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -6350,13 +6367,13 @@
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM(E34+J27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -6373,13 +6390,13 @@
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">114-H31</f>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -6395,8 +6412,8 @@
         <v>19</v>
       </c>
       <c r="H33" s="12" t="n">
-        <f aca="false">H31/393</f>
-        <v>0</v>
+        <f aca="false">H31/114</f>
+        <v>0.0350877192982456</v>
       </c>
       <c r="O33" s="28"/>
     </row>
@@ -6404,7 +6421,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="26" t="n">
         <f aca="false">SUM(D2:E33)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="28"/>
       <c r="H34" s="13" t="str">

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="389">
   <si>
     <t xml:space="preserve">wpisanych ogółem</t>
   </si>
@@ -1019,19 +1019,10 @@
     <t xml:space="preserve">be</t>
   </si>
   <si>
-    <t xml:space="preserve">was/were</t>
-  </si>
-  <si>
-    <t xml:space="preserve">been</t>
-  </si>
-  <si>
     <t xml:space="preserve">sing</t>
   </si>
   <si>
     <t xml:space="preserve">become</t>
-  </si>
-  <si>
-    <t xml:space="preserve">became</t>
   </si>
   <si>
     <t xml:space="preserve">sit</t>
@@ -5486,7 +5477,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5533,22 +5524,18 @@
       <c r="A2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>333</v>
-      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="26" t="n">
         <f aca="false">COUNTIF(B2,"was/were")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="26" t="n">
         <f aca="false">COUNTIF(C2,"been")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -5565,24 +5552,20 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>335</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="26" t="n">
         <f aca="false">COUNTIF(C3,"become")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -5599,7 +5582,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -5612,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -5629,7 +5612,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -5642,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -5659,7 +5642,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -5672,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -5689,7 +5672,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -5702,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -5719,7 +5702,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5732,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -5749,7 +5732,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -5762,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -5779,7 +5762,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -5792,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -5809,7 +5792,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -5822,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -5839,7 +5822,7 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5852,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -5869,7 +5852,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -5882,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -5899,7 +5882,7 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -5912,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -5929,7 +5912,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -5942,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5959,7 +5942,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5972,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -5989,7 +5972,7 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -6002,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -6019,7 +6002,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -6032,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -6049,7 +6032,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -6062,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -6078,7 +6061,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -6091,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -6107,7 +6090,7 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -6120,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
@@ -6136,7 +6119,7 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -6149,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -6165,7 +6148,7 @@
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -6178,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -6194,7 +6177,7 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -6207,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
@@ -6223,7 +6206,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -6236,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -6252,7 +6235,7 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -6273,7 +6256,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -6293,7 +6276,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -6309,7 +6292,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -6328,7 +6311,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -6341,16 +6324,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -6367,13 +6350,13 @@
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM(E34+J27)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -6390,13 +6373,13 @@
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">114-H31</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -6413,7 +6396,7 @@
       </c>
       <c r="H33" s="12" t="n">
         <f aca="false">H31/114</f>
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="O33" s="28"/>
     </row>
@@ -6421,7 +6404,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="26" t="n">
         <f aca="false">SUM(D2:E33)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="28"/>
       <c r="H34" s="13" t="str">

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="390">
   <si>
     <t xml:space="preserve">wpisanych ogółem</t>
   </si>
@@ -1163,6 +1163,9 @@
     <t xml:space="preserve">meet</t>
   </si>
   <si>
+    <t xml:space="preserve">feel</t>
+  </si>
+  <si>
     <t xml:space="preserve">pay</t>
   </si>
   <si>
@@ -1178,7 +1181,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">114 słówek</t>
+    <t xml:space="preserve">116 słówek</t>
   </si>
   <si>
     <t xml:space="preserve">see</t>
@@ -1199,7 +1202,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1303,6 +1306,14 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1557,7 +1568,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6233,7 +6244,7 @@
       </c>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
         <v>379</v>
       </c>
@@ -6247,16 +6258,24 @@
         <f aca="false">COUNTIF(C26,"met")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="35" t="s">
+        <v>380</v>
+      </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="26" t="n">
+        <f aca="false">COUNTIF(G26,"felt")</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="26" t="n">
+        <f aca="false">COUNTIF(H26,"felt")</f>
+        <v>0</v>
+      </c>
       <c r="O26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -6276,7 +6295,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -6292,7 +6311,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -6311,7 +6330,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -6324,16 +6343,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -6356,7 +6375,7 @@
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -6372,14 +6391,14 @@
         <v>15</v>
       </c>
       <c r="H32" s="6" t="n">
-        <f aca="false">114-H31</f>
-        <v>114</v>
+        <f aca="false">116-H31</f>
+        <v>116</v>
       </c>
       <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -1202,7 +1202,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1306,6 +1306,20 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1427,7 +1441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1548,7 +1562,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1556,19 +1574,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5488,7 +5510,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5548,8 +5570,8 @@
       <c r="F2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="26" t="n">
         <f aca="false">COUNTIF(G2,"sang")</f>
         <v>0</v>
@@ -5562,11 +5584,11 @@
       <c r="O2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
         <v>0</v>
@@ -5575,11 +5597,11 @@
         <f aca="false">COUNTIF(C3,"become")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="26" t="n">
         <f aca="false">COUNTIF(G3,"sat")</f>
         <v>0</v>
@@ -5608,8 +5630,8 @@
       <c r="F4" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="26" t="n">
         <f aca="false">COUNTIF(G4,"slept")</f>
         <v>0</v>
@@ -5622,11 +5644,11 @@
       <c r="O4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="26" t="n">
         <f aca="false">COUNTIF(B5,"brought")</f>
         <v>0</v>
@@ -5635,11 +5657,11 @@
         <f aca="false">COUNTIF(C5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="26" t="n">
         <f aca="false">COUNTIF(G5,"spoke")</f>
         <v>0</v>
@@ -5668,8 +5690,8 @@
       <c r="F6" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="26" t="n">
         <f aca="false">COUNTIF(G6,"spent")</f>
         <v>0</v>
@@ -5682,11 +5704,11 @@
       <c r="O6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="26" t="n">
         <f aca="false">COUNTIF(B7,"came")</f>
         <v>0</v>
@@ -5695,11 +5717,11 @@
         <f aca="false">COUNTIF(C7,"come")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="26" t="n">
         <f aca="false">COUNTIF(G7,"stood")</f>
         <v>0</v>
@@ -5728,8 +5750,8 @@
       <c r="F8" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="26" t="n">
         <f aca="false">COUNTIF(G8,"stole")</f>
         <v>0</v>
@@ -5742,11 +5764,11 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="26" t="n">
         <f aca="false">COUNTIF(B9,"drank")</f>
         <v>0</v>
@@ -5755,11 +5777,11 @@
         <f aca="false">COUNTIF(C9,"drunk")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="26" t="n">
         <f aca="false">COUNTIF(G9,"swam")</f>
         <v>0</v>
@@ -5788,8 +5810,8 @@
       <c r="F10" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="26" t="n">
         <f aca="false">COUNTIF(G10,"took")</f>
         <v>0</v>
@@ -5802,11 +5824,11 @@
       <c r="O10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="26" t="n">
         <f aca="false">COUNTIF(B11,"ate")</f>
         <v>0</v>
@@ -5815,11 +5837,11 @@
         <f aca="false">COUNTIF(C11,"eaten")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="26" t="n">
         <f aca="false">COUNTIF(G11,"taught")</f>
         <v>0</v>
@@ -5848,8 +5870,8 @@
       <c r="F12" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="26" t="n">
         <f aca="false">COUNTIF(G12,"thought")</f>
         <v>0</v>
@@ -5862,11 +5884,11 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="26" t="n">
         <f aca="false">COUNTIF(B13,"forgot")</f>
         <v>0</v>
@@ -5875,11 +5897,11 @@
         <f aca="false">COUNTIF(C13,"forgotten")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="26" t="n">
         <f aca="false">COUNTIF(G13,"understood")</f>
         <v>0</v>
@@ -5908,8 +5930,8 @@
       <c r="F14" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="26" t="n">
         <f aca="false">COUNTIF(G14,"woke")</f>
         <v>0</v>
@@ -5922,11 +5944,11 @@
       <c r="O14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="26" t="n">
         <f aca="false">COUNTIF(B15,"got")</f>
         <v>0</v>
@@ -5935,11 +5957,11 @@
         <f aca="false">COUNTIF(C15,"got")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="26" t="n">
         <f aca="false">COUNTIF(G15,"won")</f>
         <v>0</v>
@@ -5968,8 +5990,8 @@
       <c r="F16" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="26" t="n">
         <f aca="false">COUNTIF(G16,"wrote")</f>
         <v>0</v>
@@ -5982,11 +6004,11 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="26" t="n">
         <f aca="false">COUNTIF(B17,"went")</f>
         <v>0</v>
@@ -5995,11 +6017,11 @@
         <f aca="false">COUNTIF(C17,"gone")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="26" t="n">
         <f aca="false">COUNTIF(G17,"chose")</f>
         <v>0</v>
@@ -6028,8 +6050,8 @@
       <c r="F18" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="26" t="n">
         <f aca="false">COUNTIF(G18,"cut")</f>
         <v>0</v>
@@ -6041,12 +6063,12 @@
       <c r="K18" s="28"/>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="26" t="n">
         <f aca="false">COUNTIF(B19,"kept")</f>
         <v>0</v>
@@ -6055,11 +6077,11 @@
         <f aca="false">COUNTIF(C19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="26" t="n">
         <f aca="false">COUNTIF(G19,"found")</f>
         <v>0</v>
@@ -6070,7 +6092,7 @@
       </c>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
         <v>367</v>
       </c>
@@ -6087,8 +6109,8 @@
       <c r="F20" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="26" t="n">
         <f aca="false">COUNTIF(G20,"began")</f>
         <v>0</v>
@@ -6099,12 +6121,12 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="26" t="n">
         <f aca="false">COUNTIF(B21,"left")</f>
         <v>0</v>
@@ -6113,11 +6135,11 @@
         <f aca="false">COUNTIF(C21,"left")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="26" t="n">
         <f aca="false">COUNTIF(G21,"built")</f>
         <v>0</v>
@@ -6128,7 +6150,7 @@
       </c>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
         <v>371</v>
       </c>
@@ -6145,8 +6167,8 @@
       <c r="F22" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="26" t="n">
         <f aca="false">COUNTIF(G22,"rode")</f>
         <v>0</v>
@@ -6157,12 +6179,12 @@
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="26" t="n">
         <f aca="false">COUNTIF(B23,"lost")</f>
         <v>0</v>
@@ -6171,11 +6193,11 @@
         <f aca="false">COUNTIF(C23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="26" t="n">
         <f aca="false">COUNTIF(G23,"sent")</f>
         <v>0</v>
@@ -6186,7 +6208,7 @@
       </c>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
         <v>375</v>
       </c>
@@ -6203,8 +6225,8 @@
       <c r="F24" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="26" t="n">
         <f aca="false">COUNTIF(G24,"flew")</f>
         <v>0</v>
@@ -6215,12 +6237,12 @@
       </c>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="26" t="n">
         <f aca="false">COUNTIF(B25,"meant")</f>
         <v>0</v>
@@ -6229,11 +6251,11 @@
         <f aca="false">COUNTIF(C25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="26" t="n">
         <f aca="false">COUNTIF(G25,"ran")</f>
         <v>0</v>
@@ -6258,11 +6280,11 @@
         <f aca="false">COUNTIF(C26,"met")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="26" t="n">
         <f aca="false">COUNTIF(G26,"felt")</f>
         <v>0</v>
@@ -6274,11 +6296,11 @@
       <c r="O26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="26" t="n">
         <f aca="false">COUNTIF(B27,"paid")</f>
         <v>0</v>
@@ -6310,11 +6332,11 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="26" t="n">
         <f aca="false">COUNTIF(B29,"read")</f>
         <v>0</v>
@@ -6351,11 +6373,11 @@
       <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="26" t="n">
         <f aca="false">COUNTIF(B31,"saw")</f>
         <v>0</v>
@@ -6397,11 +6419,11 @@
       <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="26" t="n">
         <f aca="false">COUNTIF(B33,"told")</f>
         <v>0</v>
@@ -6414,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="12" t="n">
-        <f aca="false">H31/114</f>
+        <f aca="false">H31/116</f>
         <v>0</v>
       </c>
       <c r="O33" s="28"/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">116 słówek</t>
+    <t xml:space="preserve">114 słówek</t>
   </si>
   <si>
     <t xml:space="preserve">see</t>
@@ -1334,7 +1334,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,6 +1363,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66CC00"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC578"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1441,7 +1447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1562,6 +1568,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1570,15 +1580,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1644,7 +1662,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF66CC00"/>
@@ -1673,7 +1691,7 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -5509,8 +5527,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5558,7 +5576,7 @@
         <v>331</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="26" t="n">
         <f aca="false">COUNTIF(B2,"was/were")</f>
         <v>0</v>
@@ -5570,8 +5588,8 @@
       <c r="F2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="26" t="n">
         <f aca="false">COUNTIF(G2,"sang")</f>
         <v>0</v>
@@ -5584,11 +5602,11 @@
       <c r="O2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="26" t="n">
         <f aca="false">COUNTIF(B3,"became")</f>
         <v>0</v>
@@ -5597,11 +5615,11 @@
         <f aca="false">COUNTIF(C3,"become")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="26" t="n">
         <f aca="false">COUNTIF(G3,"sat")</f>
         <v>0</v>
@@ -5617,8 +5635,8 @@
       <c r="A4" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="26" t="n">
         <f aca="false">COUNTIF(B4,"broke")</f>
         <v>0</v>
@@ -5630,8 +5648,8 @@
       <c r="F4" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="26" t="n">
         <f aca="false">COUNTIF(G4,"slept")</f>
         <v>0</v>
@@ -5644,11 +5662,11 @@
       <c r="O4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="26" t="n">
         <f aca="false">COUNTIF(B5,"brought")</f>
         <v>0</v>
@@ -5657,11 +5675,11 @@
         <f aca="false">COUNTIF(C5,"brought")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="26" t="n">
         <f aca="false">COUNTIF(G5,"spoke")</f>
         <v>0</v>
@@ -5677,8 +5695,8 @@
       <c r="A6" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="26" t="n">
         <f aca="false">COUNTIF(B6,"bought")</f>
         <v>0</v>
@@ -5690,8 +5708,8 @@
       <c r="F6" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="26" t="n">
         <f aca="false">COUNTIF(G6,"spent")</f>
         <v>0</v>
@@ -5704,11 +5722,11 @@
       <c r="O6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="26" t="n">
         <f aca="false">COUNTIF(B7,"came")</f>
         <v>0</v>
@@ -5717,11 +5735,11 @@
         <f aca="false">COUNTIF(C7,"come")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="26" t="n">
         <f aca="false">COUNTIF(G7,"stood")</f>
         <v>0</v>
@@ -5737,8 +5755,8 @@
       <c r="A8" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="26" t="n">
         <f aca="false">COUNTIF(B8,"did")</f>
         <v>0</v>
@@ -5750,8 +5768,8 @@
       <c r="F8" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="26" t="n">
         <f aca="false">COUNTIF(G8,"stole")</f>
         <v>0</v>
@@ -5764,11 +5782,11 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="26" t="n">
         <f aca="false">COUNTIF(B9,"drank")</f>
         <v>0</v>
@@ -5777,11 +5795,11 @@
         <f aca="false">COUNTIF(C9,"drunk")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="26" t="n">
         <f aca="false">COUNTIF(G9,"swam")</f>
         <v>0</v>
@@ -5797,8 +5815,8 @@
       <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
         <v>0</v>
@@ -5810,8 +5828,8 @@
       <c r="F10" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="26" t="n">
         <f aca="false">COUNTIF(G10,"took")</f>
         <v>0</v>
@@ -5824,11 +5842,11 @@
       <c r="O10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="26" t="n">
         <f aca="false">COUNTIF(B11,"ate")</f>
         <v>0</v>
@@ -5837,11 +5855,11 @@
         <f aca="false">COUNTIF(C11,"eaten")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="26" t="n">
         <f aca="false">COUNTIF(G11,"taught")</f>
         <v>0</v>
@@ -5857,8 +5875,8 @@
       <c r="A12" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
@@ -5870,8 +5888,8 @@
       <c r="F12" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="26" t="n">
         <f aca="false">COUNTIF(G12,"thought")</f>
         <v>0</v>
@@ -5884,11 +5902,11 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="26" t="n">
         <f aca="false">COUNTIF(B13,"forgot")</f>
         <v>0</v>
@@ -5897,17 +5915,17 @@
         <f aca="false">COUNTIF(C13,"forgotten")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="26" t="n">
         <f aca="false">COUNTIF(G13,"understood")</f>
         <v>0</v>
       </c>
       <c r="J13" s="26" t="n">
-        <f aca="false">COUNTIF(H13,"sung")</f>
+        <f aca="false">COUNTIF(H13,"understood")</f>
         <v>0</v>
       </c>
       <c r="K13" s="27"/>
@@ -5917,8 +5935,8 @@
       <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
         <v>0</v>
@@ -5930,8 +5948,8 @@
       <c r="F14" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="26" t="n">
         <f aca="false">COUNTIF(G14,"woke")</f>
         <v>0</v>
@@ -5944,11 +5962,11 @@
       <c r="O14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="26" t="n">
         <f aca="false">COUNTIF(B15,"got")</f>
         <v>0</v>
@@ -5957,11 +5975,11 @@
         <f aca="false">COUNTIF(C15,"got")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="26" t="n">
         <f aca="false">COUNTIF(G15,"won")</f>
         <v>0</v>
@@ -5977,8 +5995,8 @@
       <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
         <v>0</v>
@@ -5990,8 +6008,8 @@
       <c r="F16" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="26" t="n">
         <f aca="false">COUNTIF(G16,"wrote")</f>
         <v>0</v>
@@ -6004,11 +6022,11 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="26" t="n">
         <f aca="false">COUNTIF(B17,"went")</f>
         <v>0</v>
@@ -6017,11 +6035,11 @@
         <f aca="false">COUNTIF(C17,"gone")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="26" t="n">
         <f aca="false">COUNTIF(G17,"chose")</f>
         <v>0</v>
@@ -6037,8 +6055,8 @@
       <c r="A18" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="26" t="n">
         <f aca="false">COUNTIF(B18,"had")</f>
         <v>0</v>
@@ -6050,8 +6068,8 @@
       <c r="F18" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="26" t="n">
         <f aca="false">COUNTIF(G18,"cut")</f>
         <v>0</v>
@@ -6064,11 +6082,11 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="26" t="n">
         <f aca="false">COUNTIF(B19,"kept")</f>
         <v>0</v>
@@ -6077,11 +6095,11 @@
         <f aca="false">COUNTIF(C19,"kept")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="26" t="n">
         <f aca="false">COUNTIF(G19,"found")</f>
         <v>0</v>
@@ -6096,7 +6114,7 @@
       <c r="A20" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="30"/>
       <c r="D20" s="26" t="n">
         <f aca="false">COUNTIF(B20,"knew")</f>
@@ -6109,8 +6127,8 @@
       <c r="F20" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="26" t="n">
         <f aca="false">COUNTIF(G20,"began")</f>
         <v>0</v>
@@ -6122,11 +6140,11 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="26" t="n">
         <f aca="false">COUNTIF(B21,"left")</f>
         <v>0</v>
@@ -6135,11 +6153,11 @@
         <f aca="false">COUNTIF(C21,"left")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="26" t="n">
         <f aca="false">COUNTIF(G21,"built")</f>
         <v>0</v>
@@ -6154,8 +6172,8 @@
       <c r="A22" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="26" t="n">
         <f aca="false">COUNTIF(B22,"let")</f>
         <v>0</v>
@@ -6167,8 +6185,8 @@
       <c r="F22" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="26" t="n">
         <f aca="false">COUNTIF(G22,"rode")</f>
         <v>0</v>
@@ -6180,11 +6198,11 @@
       <c r="O22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="26" t="n">
         <f aca="false">COUNTIF(B23,"lost")</f>
         <v>0</v>
@@ -6193,11 +6211,11 @@
         <f aca="false">COUNTIF(C23,"lost")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="26" t="n">
         <f aca="false">COUNTIF(G23,"sent")</f>
         <v>0</v>
@@ -6212,8 +6230,8 @@
       <c r="A24" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="26" t="n">
         <f aca="false">COUNTIF(B24,"made")</f>
         <v>0</v>
@@ -6225,8 +6243,8 @@
       <c r="F24" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="26" t="n">
         <f aca="false">COUNTIF(G24,"flew")</f>
         <v>0</v>
@@ -6238,11 +6256,11 @@
       <c r="O24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="26" t="n">
         <f aca="false">COUNTIF(B25,"meant")</f>
         <v>0</v>
@@ -6251,11 +6269,11 @@
         <f aca="false">COUNTIF(C25,"meant")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="26" t="n">
         <f aca="false">COUNTIF(G25,"ran")</f>
         <v>0</v>
@@ -6270,8 +6288,8 @@
       <c r="A26" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="26" t="n">
         <f aca="false">COUNTIF(B26,"met")</f>
         <v>0</v>
@@ -6280,11 +6298,11 @@
         <f aca="false">COUNTIF(C26,"met")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="26" t="n">
         <f aca="false">COUNTIF(G26,"felt")</f>
         <v>0</v>
@@ -6296,11 +6314,11 @@
       <c r="O26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="26" t="n">
         <f aca="false">COUNTIF(B27,"paid")</f>
         <v>0</v>
@@ -6319,8 +6337,8 @@
       <c r="A28" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="26" t="n">
         <f aca="false">COUNTIF(B28,"put")</f>
         <v>0</v>
@@ -6332,11 +6350,11 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="26" t="n">
         <f aca="false">COUNTIF(B29,"read")</f>
         <v>0</v>
@@ -6354,8 +6372,8 @@
       <c r="A30" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="26" t="n">
         <f aca="false">COUNTIF(B30,"said")</f>
         <v>0</v>
@@ -6373,11 +6391,11 @@
       <c r="O30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="26" t="n">
         <f aca="false">COUNTIF(B31,"saw")</f>
         <v>0</v>
@@ -6399,8 +6417,8 @@
       <c r="A32" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="26" t="n">
         <f aca="false">COUNTIF(B32,"sold")</f>
         <v>0</v>
@@ -6419,11 +6437,11 @@
       <c r="O32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="26" t="n">
         <f aca="false">COUNTIF(B33,"told")</f>
         <v>0</v>
@@ -6436,7 +6454,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="12" t="n">
-        <f aca="false">H31/116</f>
+        <f aca="false">H31/114</f>
         <v>0</v>
       </c>
       <c r="O33" s="28"/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1691,29 +1691,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5512,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5527,22 +5527,22 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,8 +6431,8 @@
         <v>15</v>
       </c>
       <c r="H32" s="6" t="n">
-        <f aca="false">116-H31</f>
-        <v>116</v>
+        <f aca="false">114-H31</f>
+        <v>114</v>
       </c>
       <c r="O32" s="28"/>
     </row>
@@ -6479,7 +6479,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,2382 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bri/yng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">baj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">du</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrink</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrajw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">it</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fo/ul</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forget</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgi/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">get</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gi/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">goł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hew/f</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kiip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">noł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">liw/f</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">LET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">luus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">riid</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sej</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sii</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikejm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bro/ułk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">boot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kejm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">did/k</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżreńk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrołw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ejt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgejw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">got</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gej/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">niu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">left</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">let</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">lost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">met</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">se/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">so/ł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">soł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">toł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brołken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bro/ułt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bo/ot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżriwen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">i/yten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fo/ulen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgotten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgiwyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">got</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">giwe/yn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">nołyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">left</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">let</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">lost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">met</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">se/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">siin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">soł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">toł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">s/iyng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">s/iyt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spiik</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sten/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stiil</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sł/iym</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">t/iycz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/iynk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestend</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">rai/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/ius</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fain/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/iyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">b/yil/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">raj/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">flaj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fiil</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sang</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sa/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">społk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stołl</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">słem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tuuk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tou/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">foo/dt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestuu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ło/rk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">roł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/iołs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/eon/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/aen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">byl/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">roł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">flu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">felt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">son/kg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sa/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">społken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stolen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">słam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tejken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tou/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">foo/dt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestuu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ło/łken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">r/iyten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/iołsen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/eon/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/aoon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">byl/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">r/iyden</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Floł/yn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">felt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,29 +4067,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +7888,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5527,22 +7903,22 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +8191,7 @@
       <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
@@ -5876,7 +8252,7 @@
         <v>351</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
@@ -5935,7 +8311,7 @@
       <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
@@ -5995,7 +8371,7 @@
       <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
@@ -6479,10 +8855,11 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,2382 +18,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bikam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">brejk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bri/yng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">baj</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">du</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżrink</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżrajw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">it</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">fo/ul</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forget</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forgi/yw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">get</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">gi/yw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">goł</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">hew/f</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kiip</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">noł</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">liw/f</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">LET</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">luus</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">mejk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">min</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">mit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">pej</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">put</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">riid</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sej</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sii</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sell</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tell</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bikejm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bro/ułk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">brot</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">boot</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kejm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">did/k</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżreńk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżrołw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ejt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">fell</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forgot</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forgejw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">got</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">gej/yw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">łent</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">hed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kept</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">niu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">left</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">let</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">lost</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">mejd</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">met</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">pej/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">put</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">red</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">se/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">so/ł</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">soł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">toł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bikam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">brołken</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bro/ułt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">bo/ot</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżrank</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">dżriwen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">i/yten</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">fo/ulen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forgotten</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">forgiwyn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">got</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">giwe/yn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">gon</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">hed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kept</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">nołyn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">left</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">let</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">lost</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">mejd</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">met</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">pej/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">put</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">red</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">se/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">siin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">soł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">toł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">s/iyng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">s/iyt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">slip</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">spiik</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">spen/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sten/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">stiil</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sł/iym</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tejk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">t/iycz</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">f/iynk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">andestend</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">łejk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">łin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">rai/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">cz/ius</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">fain/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">big/iyn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">b/yil/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">raj/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sen/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">flaj</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">fiil</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sang</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sa/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">slept</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">społk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">spen/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">stu/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">stołl</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">słem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tuuk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tou/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">foo/dt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">andestuu/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ło/rk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">łon</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">roł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">cz/iołs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">f/eon/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">big/aen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">byl/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">roł/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sent</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">flu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">felt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">son/kg</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sa/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">slept</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">społken</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">spen/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">stu/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">stolen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">słam</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tejken</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">tou/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">foo/dt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">andestuu/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ło/łken</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">łon</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">r/iyten</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">cz/iołsen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">kat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">f/eon/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">big/aoon</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">byl/td</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">r/iyden</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">sent</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">Floł/yn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">ran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">felt</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4067,29 +1691,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7888,7 +5512,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7903,22 +5527,22 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,7 +5815,7 @@
       <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
@@ -8252,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
@@ -8311,7 +5935,7 @@
       <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
@@ -8371,7 +5995,7 @@
       <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
@@ -8855,11 +6479,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,2382 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bri/yng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">baj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">du</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrink</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrajw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">it</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fo/ul</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forget</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgi/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">get</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gi/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">goł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hew/f</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kiip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">noł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">liw/f</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">LET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">luus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">riid</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sej</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sii</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikejm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bro/ułk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">boot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kejm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">did/k</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżreńk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrołw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ejt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgejw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">got</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gej/yw</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">niu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">left</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">let</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">lost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">met</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">se/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">so/ł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">soł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">toł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bikam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">brołken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bro/ułt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">bo/ot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżrank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">dżriwen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">i/yten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fo/ulen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgotten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">forgiwyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">got</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">giwe/yn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">gon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">hed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">nołyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">left</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">let</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">lost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">mejd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">met</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">pej/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">put</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">se/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">siin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">soł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">toł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">s/iyng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">s/iyt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spiik</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sten/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stiil</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sł/iym</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">t/iycz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/iynk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestend</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łejk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">rai/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/ius</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fain/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/iyn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">b/yil/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">raj/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">flaj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">fiil</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sang</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sa/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">społk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stołl</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">słem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tuuk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tou/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">foo/dt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestuu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ło/rk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">roł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/iołs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/eon/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/aen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">byl/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">roł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">flu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">felt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">son/kg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sa/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">slept</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">społken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">spen/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">stolen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">słam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tejken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">tou/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">foo/dt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">andestuu/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ło/łken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">łon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">r/iyten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">cz/iołsen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">kat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">f/eon/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">big/aoon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">byl/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">r/iyden</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Floł/yn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">ran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">felt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,29 +4067,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +7888,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5527,22 +7903,22 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +8191,7 @@
       <c r="A10" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="26" t="n">
         <f aca="false">COUNTIF(B10,"drove")</f>
@@ -5876,7 +8252,7 @@
         <v>351</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="26" t="n">
         <f aca="false">COUNTIF(B12,"fell")</f>
         <v>0</v>
@@ -5935,7 +8311,7 @@
       <c r="A14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="26" t="n">
         <f aca="false">COUNTIF(B14,"forgave")</f>
@@ -5995,7 +8371,7 @@
       <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="26" t="n">
         <f aca="false">COUNTIF(B16,"gave")</f>
@@ -6479,10 +8855,11 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Angielski Słówka cwiczenia.xlsx
+++ b/Angielski Słówka cwiczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -474,6 +474,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Łos/łeer</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D3" authorId="0">
       <text>
         <r>
@@ -905,6 +919,20 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">toł/td</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">biin</t>
         </r>
       </text>
     </comment>
@@ -4067,29 +4095,29 @@
   </sheetPr>
   <dimension ref="B1:P133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7888,7 +7916,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7903,22 +7931,22 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,7 +8232,7 @@
       <c r="F10" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="32"/>
       <c r="I10" s="26" t="n">
         <f aca="false">COUNTIF(G10,"took")</f>
@@ -8385,7 +8413,7 @@
         <v>360</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="26" t="n">
         <f aca="false">COUNTIF(G16,"wrote")</f>
         <v>0</v>
@@ -8562,7 +8590,7 @@
         <v>372</v>
       </c>
       <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="26" t="n">
         <f aca="false">COUNTIF(G22,"rode")</f>
         <v>0</v>
@@ -8855,7 +8883,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
